--- a/documents/汽车维修保养管理系统功能列表.xlsx
+++ b/documents/汽车维修保养管理系统功能列表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234">
   <si>
     <t>角色分析</t>
   </si>
@@ -453,6 +453,9 @@
   </si>
   <si>
     <t>派工领料</t>
+  </si>
+  <si>
+    <t>分页查看所有物料清单</t>
   </si>
   <si>
     <t>物料清单添加</t>
@@ -746,8 +749,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -783,7 +786,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -804,39 +821,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -847,6 +834,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -867,7 +869,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -889,6 +891,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -896,6 +913,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -903,24 +921,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -935,13 +938,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -953,67 +974,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1031,19 +1004,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1061,7 +1094,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1073,49 +1106,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1132,49 +1135,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1183,7 +1145,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1218,11 +1180,52 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1234,10 +1237,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1246,133 +1249,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1780,10 +1783,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F221"/>
+  <dimension ref="A1:F222"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="B134" sqref="B134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2756,7 +2759,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="120" ht="54" spans="1:5">
+    <row r="120" ht="40.5" spans="1:5">
       <c r="A120" s="6"/>
       <c r="B120" s="9" t="s">
         <v>124</v>
@@ -2916,25 +2919,23 @@
       <c r="B134" t="s">
         <v>142</v>
       </c>
-      <c r="C134" t="s">
+      <c r="F134" s="10"/>
+    </row>
+    <row r="135" customFormat="1" spans="2:6">
+      <c r="B135" t="s">
         <v>143</v>
       </c>
-      <c r="F134" s="10"/>
-    </row>
-    <row r="135" customFormat="1" spans="2:3">
-      <c r="B135" s="11" t="s">
+      <c r="C135" t="s">
         <v>144</v>
       </c>
-      <c r="C135" t="s">
+      <c r="F135" s="10"/>
+    </row>
+    <row r="136" customFormat="1" spans="2:3">
+      <c r="B136" s="11" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="136" customFormat="1" spans="2:3">
-      <c r="B136" t="s">
+      <c r="C136" t="s">
         <v>146</v>
-      </c>
-      <c r="C136" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="137" customFormat="1" spans="2:3">
@@ -2942,128 +2943,125 @@
         <v>147</v>
       </c>
       <c r="C137" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1">
-      <c r="A139" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138" customFormat="1" spans="2:3">
+      <c r="B138" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="140" spans="1:5">
+      <c r="C138" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
       <c r="A140" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="B141" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="C141" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D140" s="1" t="s">
+      <c r="D141" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E140" s="1" t="s">
+      <c r="E141" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="141" ht="40.5" spans="2:5">
-      <c r="B141" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C141" s="4" t="s">
+    <row r="142" ht="40.5" spans="2:5">
+      <c r="B142" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E141" s="8"/>
-    </row>
-    <row r="142" spans="2:5">
-      <c r="B142" s="1" t="s">
+      <c r="C142" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>152</v>
       </c>
       <c r="E142" s="8"/>
     </row>
     <row r="143" spans="2:5">
       <c r="B143" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C143" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C143" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="E143" s="8"/>
     </row>
-    <row r="144" spans="5:5">
+    <row r="144" spans="2:5">
+      <c r="B144" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="E144" s="8"/>
     </row>
-    <row r="145" spans="1:1">
-      <c r="A145" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5">
+    <row r="145" spans="5:5">
+      <c r="E145" s="8"/>
+    </row>
+    <row r="146" spans="1:1">
       <c r="A146" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="B147" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C146" s="1" t="s">
+      <c r="C147" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D146" s="1" t="s">
+      <c r="D147" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E146" s="1" t="s">
+      <c r="E147" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="147" spans="2:5">
-      <c r="B147" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C147" s="1" t="s">
+    <row r="148" spans="2:5">
+      <c r="B148" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C148" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E147" s="8"/>
-    </row>
-    <row r="149" spans="1:5">
-      <c r="A149" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="B149" s="12"/>
-      <c r="C149" s="12"/>
-      <c r="D149" s="12"/>
-      <c r="E149" s="12"/>
+      <c r="E148" s="8"/>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B150" s="12"/>
+      <c r="C150" s="12"/>
+      <c r="D150" s="12"/>
+      <c r="E150" s="12"/>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B150" s="12" t="s">
+      <c r="B151" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C150" s="12" t="s">
+      <c r="C151" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D150" s="12" t="s">
+      <c r="D151" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E150" s="1" t="s">
+      <c r="E151" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="151" spans="1:5">
-      <c r="A151" s="12"/>
-      <c r="B151" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C151" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D151" s="12"/>
-      <c r="E151" s="12"/>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="12"/>
@@ -3082,7 +3080,7 @@
         <v>159</v>
       </c>
       <c r="C153" s="12" t="s">
-        <v>160</v>
+        <v>114</v>
       </c>
       <c r="D153" s="12"/>
       <c r="E153" s="12"/>
@@ -3090,32 +3088,32 @@
     <row r="154" spans="1:5">
       <c r="A154" s="12"/>
       <c r="B154" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C154" s="12" t="s">
         <v>161</v>
-      </c>
-      <c r="C154" s="12" t="s">
-        <v>114</v>
       </c>
       <c r="D154" s="12"/>
       <c r="E154" s="12"/>
     </row>
-    <row r="155" ht="27" spans="1:5">
+    <row r="155" spans="1:5">
       <c r="A155" s="12"/>
       <c r="B155" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="C155" s="13" t="s">
-        <v>163</v>
+      <c r="C155" s="12" t="s">
+        <v>114</v>
       </c>
       <c r="D155" s="12"/>
       <c r="E155" s="12"/>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" ht="27" spans="1:5">
       <c r="A156" s="12"/>
       <c r="B156" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C156" s="13" t="s">
         <v>164</v>
-      </c>
-      <c r="C156" s="12" t="s">
-        <v>114</v>
       </c>
       <c r="D156" s="12"/>
       <c r="E156" s="12"/>
@@ -3126,87 +3124,90 @@
         <v>165</v>
       </c>
       <c r="C157" s="12" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="D157" s="12"/>
       <c r="E157" s="12"/>
     </row>
-    <row r="159" s="1" customFormat="1" spans="1:1">
-      <c r="A159" s="1" t="s">
+    <row r="158" spans="1:5">
+      <c r="A158" s="12"/>
+      <c r="B158" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C158" s="12" t="s">
         <v>167</v>
       </c>
+      <c r="D158" s="12"/>
+      <c r="E158" s="12"/>
     </row>
     <row r="160" s="1" customFormat="1" spans="1:1">
       <c r="A160" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="161" s="1" customFormat="1" spans="1:5">
+    <row r="161" s="1" customFormat="1" spans="1:1">
       <c r="A161" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="162" s="1" customFormat="1" spans="1:5">
+      <c r="A162" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B161" s="1" t="s">
+      <c r="B162" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C161" s="1" t="s">
+      <c r="C162" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D161" s="1" t="s">
+      <c r="D162" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E161" s="1" t="s">
+      <c r="E162" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="162" s="1" customFormat="1" spans="2:5">
-      <c r="B162" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C162" s="1" t="s">
+    <row r="163" s="1" customFormat="1" spans="2:5">
+      <c r="B163" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C163" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E162" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="163" s="2" customFormat="1" ht="27" spans="2:3">
-      <c r="B163" s="5" t="s">
+      <c r="E163" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="C163" s="14" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="164" s="2" customFormat="1" ht="27" spans="2:3">
       <c r="B164" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C164" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="C164" s="14" t="s">
+    </row>
+    <row r="165" s="2" customFormat="1" ht="27" spans="2:3">
+      <c r="B165" s="5" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="165" s="1" customFormat="1" ht="27" spans="2:3">
-      <c r="B165" s="1" t="s">
+      <c r="C165" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="C165" s="4" t="s">
+    </row>
+    <row r="166" s="1" customFormat="1" ht="27" spans="2:3">
+      <c r="B166" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="166" s="1" customFormat="1" ht="40.5" spans="2:3">
-      <c r="B166" s="1" t="s">
+      <c r="C166" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C166" s="4" t="s">
+    </row>
+    <row r="167" s="1" customFormat="1" ht="40.5" spans="2:3">
+      <c r="B167" s="1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="167" s="1" customFormat="1" spans="2:3">
-      <c r="B167" s="1" t="s">
+      <c r="C167" s="4" t="s">
         <v>179</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="168" s="1" customFormat="1" spans="2:3">
@@ -3214,7 +3215,7 @@
         <v>180</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>15</v>
+        <v>121</v>
       </c>
     </row>
     <row r="169" s="1" customFormat="1" spans="2:3">
@@ -3225,20 +3226,20 @@
         <v>15</v>
       </c>
     </row>
-    <row r="170" s="1" customFormat="1" ht="27" spans="2:3">
+    <row r="170" s="1" customFormat="1" spans="2:3">
       <c r="B170" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C170" s="4" t="s">
+      <c r="C170" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="171" s="1" customFormat="1" ht="27" spans="2:3">
+      <c r="B171" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="171" s="1" customFormat="1" spans="2:3">
-      <c r="B171" s="1" t="s">
+      <c r="C171" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="172" s="1" customFormat="1" spans="2:3">
@@ -3246,7 +3247,7 @@
         <v>185</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="173" s="1" customFormat="1" spans="2:3">
@@ -3265,55 +3266,55 @@
         <v>114</v>
       </c>
     </row>
-    <row r="175" s="1" customFormat="1" ht="27" spans="2:3">
+    <row r="175" s="1" customFormat="1" spans="2:3">
       <c r="B175" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C175" s="4" t="s">
+      <c r="C175" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="176" s="1" customFormat="1" ht="27" spans="2:3">
+      <c r="B176" s="1" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="176" s="1" customFormat="1" spans="2:2">
-      <c r="B176" s="1" t="s">
+      <c r="C176" s="4" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="178" spans="1:1">
-      <c r="A178" s="1" t="s">
+    <row r="177" s="1" customFormat="1" spans="2:2">
+      <c r="B177" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:1">
       <c r="A179" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B179" s="1" t="s">
+      <c r="B180" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C179" s="1" t="s">
+      <c r="C180" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D179" s="1" t="s">
+      <c r="D180" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E179" s="1" t="s">
+      <c r="E180" s="1" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="180" spans="2:3">
-      <c r="B180" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="181" spans="2:3">
       <c r="B181" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C181" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="182" spans="2:3">
@@ -3321,7 +3322,7 @@
         <v>195</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="183" spans="2:3">
@@ -3329,7 +3330,7 @@
         <v>196</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="184" spans="2:3">
@@ -3337,7 +3338,7 @@
         <v>197</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="185" spans="2:3">
@@ -3345,7 +3346,7 @@
         <v>198</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="186" spans="2:3">
@@ -3353,7 +3354,7 @@
         <v>199</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="187" spans="2:3">
@@ -3361,23 +3362,23 @@
         <v>200</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="188" spans="2:3">
-      <c r="B188" s="5" t="s">
+      <c r="B188" s="1" t="s">
         <v>201</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="189" spans="2:3">
-      <c r="B189" s="1" t="s">
+      <c r="B189" s="5" t="s">
         <v>202</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="190" spans="2:3">
@@ -3385,7 +3386,7 @@
         <v>203</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="191" spans="2:3">
@@ -3393,7 +3394,7 @@
         <v>204</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="192" spans="2:3">
@@ -3401,53 +3402,50 @@
         <v>205</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="194" ht="14.25" spans="1:5">
-      <c r="A194" s="15" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="193" spans="2:3">
+      <c r="B193" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B194" s="15"/>
-      <c r="C194" s="15"/>
-      <c r="D194" s="15"/>
-      <c r="E194" s="15"/>
+      <c r="C193" s="1" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="195" ht="14.25" spans="1:5">
       <c r="A195" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="B195" s="15"/>
+      <c r="C195" s="15"/>
+      <c r="D195" s="15"/>
+      <c r="E195" s="15"/>
+    </row>
+    <row r="196" ht="14.25" spans="1:5">
+      <c r="A196" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B195" s="15" t="s">
+      <c r="B196" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C195" s="15" t="s">
+      <c r="C196" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D195" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="E195" s="15" t="s">
+      <c r="D196" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="E196" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="196" ht="28.5" spans="1:5">
-      <c r="A196" s="15"/>
-      <c r="B196" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="C196" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="D196" s="15"/>
-      <c r="E196" s="15"/>
-    </row>
-    <row r="197" ht="14.25" spans="1:5">
+    <row r="197" ht="28.5" spans="1:5">
       <c r="A197" s="15"/>
       <c r="B197" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="C197" s="16" t="s">
         <v>210</v>
-      </c>
-      <c r="C197" s="15" t="s">
-        <v>6</v>
       </c>
       <c r="D197" s="15"/>
       <c r="E197" s="15"/>
@@ -3507,34 +3505,37 @@
       <c r="D202" s="15"/>
       <c r="E202" s="15"/>
     </row>
-    <row r="204" spans="1:1">
-      <c r="A204" s="1" t="s">
+    <row r="203" ht="14.25" spans="1:5">
+      <c r="A203" s="15"/>
+      <c r="B203" s="15" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="205" spans="1:5">
+      <c r="C203" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D203" s="15"/>
+      <c r="E203" s="15"/>
+    </row>
+    <row r="205" spans="1:1">
       <c r="A205" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B205" s="1" t="s">
+      <c r="B206" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C205" s="1" t="s">
+      <c r="C206" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D205" s="1" t="s">
+      <c r="D206" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E205" s="1" t="s">
+      <c r="E206" s="1" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="206" spans="2:3">
-      <c r="B206" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C206" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="207" spans="2:3">
@@ -3657,9 +3658,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="222" spans="2:3">
+      <c r="B222" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E26 E27 E28 E134 E163 JA163 SW163 ACS163 AMO163 AWK163 BGG163 BQC163 BZY163 CJU163 CTQ163 DDM163 DNI163 DXE163 EHA163 EQW163 FAS163 FKO163 FUK163 GEG163 GOC163 GXY163 HHU163 HRQ163 IBM163 ILI163 IVE163 JFA163 JOW163 JYS163 KIO163 KSK163 LCG163 LMC163 LVY163 MFU163 MPQ163 MZM163 NJI163 NTE163 ODA163 OMW163 OWS163 PGO163 PQK163 QAG163 QKC163 QTY163 RDU163 RNQ163 RXM163 SHI163 SRE163 TBA163 TKW163 TUS163 UEO163 UOK163 UYG163 VIC163 VRY163 WBU163 WLQ163 WVM163 E164 JA164 SW164 ACS164 AMO164 AWK164 BGG164 BQC164 BZY164 CJU164 CTQ164 DDM164 DNI164 DXE164 EHA164 EQW164 FAS164 FKO164 FUK164 GEG164 GOC164 GXY164 HHU164 HRQ164 IBM164 ILI164 IVE164 JFA164 JOW164 JYS164 KIO164 KSK164 LCG164 LMC164 LVY164 MFU164 MPQ164 MZM164 NJI164 NTE164 ODA164 OMW164 OWS164 PGO164 PQK164 QAG164 QKC164 QTY164 RDU164 RNQ164 RXM164 SHI164 SRE164 TBA164 TKW164 TUS164 UEO164 UOK164 UYG164 VIC164 VRY164 WBU164 WLQ164 WVM164 E165 JA165 SW165 ACS165 AMO165 AWK165 BGG165 BQC165 BZY165 CJU165 CTQ165 DDM165 DNI165 DXE165 EHA165 EQW165 FAS165 FKO165 FUK165 GEG165 GOC165 GXY165 HHU165 HRQ165 IBM165 ILI165 IVE165 JFA165 JOW165 JYS165 KIO165 KSK165 LCG165 LMC165 LVY165 MFU165 MPQ165 MZM165 NJI165 NTE165 ODA165 OMW165 OWS165 PGO165 PQK165 QAG165 QKC165 QTY165 RDU165 RNQ165 RXM165 SHI165 SRE165 TBA165 TKW165 TUS165 UEO165 UOK165 UYG165 VIC165 VRY165 WBU165 WLQ165 WVM165 E166 JA166 SW166 ACS166 AMO166 AWK166 BGG166 BQC166 BZY166 CJU166 CTQ166 DDM166 DNI166 DXE166 EHA166 EQW166 FAS166 FKO166 FUK166 GEG166 GOC166 GXY166 HHU166 HRQ166 IBM166 ILI166 IVE166 JFA166 JOW166 JYS166 KIO166 KSK166 LCG166 LMC166 LVY166 MFU166 MPQ166 MZM166 NJI166 NTE166 ODA166 OMW166 OWS166 PGO166 PQK166 QAG166 QKC166 QTY166 RDU166 RNQ166 RXM166 SHI166 SRE166 TBA166 TKW166 TUS166 UEO166 UOK166 UYG166 VIC166 VRY166 WBU166 WLQ166 WVM166 E167 JA167 SW167 ACS167 AMO167 AWK167 BGG167 BQC167 BZY167 CJU167 CTQ167 DDM167 DNI167 DXE167 EHA167 EQW167 FAS167 FKO167 FUK167 GEG167 GOC167 GXY167 HHU167 HRQ167 IBM167 ILI167 IVE167 JFA167 JOW167 JYS167 KIO167 KSK167 LCG167 LMC167 LVY167 MFU167 MPQ167 MZM167 NJI167 NTE167 ODA167 OMW167 OWS167 PGO167 PQK167 QAG167 QKC167 QTY167 RDU167 RNQ167 RXM167 SHI167 SRE167 TBA167 TKW167 TUS167 UEO167 UOK167 UYG167 VIC167 VRY167 WBU167 WLQ167 WVM167 E168 JA168 SW168 ACS168 AMO168 AWK168 BGG168 BQC168 BZY168 CJU168 CTQ168 DDM168 DNI168 DXE168 EHA168 EQW168 FAS168 FKO168 FUK168 GEG168 GOC168 GXY168 HHU168 HRQ168 IBM168 ILI168 IVE168 JFA168 JOW168 JYS168 KIO168 KSK168 LCG168 LMC168 LVY168 MFU168 MPQ168 MZM168 NJI168 NTE168 ODA168 OMW168 OWS168 PGO168 PQK168 QAG168 QKC168 QTY168 RDU168 RNQ168 RXM168 SHI168 SRE168 TBA168 TKW168 TUS168 UEO168 UOK168 UYG168 VIC168 VRY168 WBU168 WLQ168 WVM168 E169 JA169 SW169 ACS169 AMO169 AWK169 BGG169 BQC169 BZY169 CJU169 CTQ169 DDM169 DNI169 DXE169 EHA169 EQW169 FAS169 FKO169 FUK169 GEG169 GOC169 GXY169 HHU169 HRQ169 IBM169 ILI169 IVE169 JFA169 JOW169 JYS169 KIO169 KSK169 LCG169 LMC169 LVY169 MFU169 MPQ169 MZM169 NJI169 NTE169 ODA169 OMW169 OWS169 PGO169 PQK169 QAG169 QKC169 QTY169 RDU169 RNQ169 RXM169 SHI169 SRE169 TBA169 TKW169 TUS169 UEO169 UOK169 UYG169 VIC169 VRY169 WBU169 WLQ169 WVM169 E170 JA170 SW170 ACS170 AMO170 AWK170 BGG170 BQC170 BZY170 CJU170 CTQ170 DDM170 DNI170 DXE170 EHA170 EQW170 FAS170 FKO170 FUK170 GEG170 GOC170 GXY170 HHU170 HRQ170 IBM170 ILI170 IVE170 JFA170 JOW170 JYS170 KIO170 KSK170 LCG170 LMC170 LVY170 MFU170 MPQ170 MZM170 NJI170 NTE170 ODA170 OMW170 OWS170 PGO170 PQK170 QAG170 QKC170 QTY170 RDU170 RNQ170 RXM170 SHI170 SRE170 TBA170 TKW170 TUS170 UEO170 UOK170 UYG170 VIC170 VRY170 WBU170 WLQ170 WVM170 E171 JA171 SW171 ACS171 AMO171 AWK171 BGG171 BQC171 BZY171 CJU171 CTQ171 DDM171 DNI171 DXE171 EHA171 EQW171 FAS171 FKO171 FUK171 GEG171 GOC171 GXY171 HHU171 HRQ171 IBM171 ILI171 IVE171 JFA171 JOW171 JYS171 KIO171 KSK171 LCG171 LMC171 LVY171 MFU171 MPQ171 MZM171 NJI171 NTE171 ODA171 OMW171 OWS171 PGO171 PQK171 QAG171 QKC171 QTY171 RDU171 RNQ171 RXM171 SHI171 SRE171 TBA171 TKW171 TUS171 UEO171 UOK171 UYG171 VIC171 VRY171 WBU171 WLQ171 WVM171 E172 JA172 SW172 ACS172 AMO172 AWK172 BGG172 BQC172 BZY172 CJU172 CTQ172 DDM172 DNI172 DXE172 EHA172 EQW172 FAS172 FKO172 FUK172 GEG172 GOC172 GXY172 HHU172 HRQ172 IBM172 ILI172 IVE172 JFA172 JOW172 JYS172 KIO172 KSK172 LCG172 LMC172 LVY172 MFU172 MPQ172 MZM172 NJI172 NTE172 ODA172 OMW172 OWS172 PGO172 PQK172 QAG172 QKC172 QTY172 RDU172 RNQ172 RXM172 SHI172 SRE172 TBA172 TKW172 TUS172 UEO172 UOK172 UYG172 VIC172 VRY172 WBU172 WLQ172 WVM172 E173 JA173 SW173 ACS173 AMO173 AWK173 BGG173 BQC173 BZY173 CJU173 CTQ173 DDM173 DNI173 DXE173 EHA173 EQW173 FAS173 FKO173 FUK173 GEG173 GOC173 GXY173 HHU173 HRQ173 IBM173 ILI173 IVE173 JFA173 JOW173 JYS173 KIO173 KSK173 LCG173 LMC173 LVY173 MFU173 MPQ173 MZM173 NJI173 NTE173 ODA173 OMW173 OWS173 PGO173 PQK173 QAG173 QKC173 QTY173 RDU173 RNQ173 RXM173 SHI173 SRE173 TBA173 TKW173 TUS173 UEO173 UOK173 UYG173 VIC173 VRY173 WBU173 WLQ173 WVM173 E174 JA174 SW174 ACS174 AMO174 AWK174 BGG174 BQC174 BZY174 CJU174 CTQ174 DDM174 DNI174 DXE174 EHA174 EQW174 FAS174 FKO174 FUK174 GEG174 GOC174 GXY174 HHU174 HRQ174 IBM174 ILI174 IVE174 JFA174 JOW174 JYS174 KIO174 KSK174 LCG174 LMC174 LVY174 MFU174 MPQ174 MZM174 NJI174 NTE174 ODA174 OMW174 OWS174 PGO174 PQK174 QAG174 QKC174 QTY174 RDU174 RNQ174 RXM174 SHI174 SRE174 TBA174 TKW174 TUS174 UEO174 UOK174 UYG174 VIC174 VRY174 WBU174 WLQ174 WVM174 D175 IZ175 SV175 ACR175 AMN175 AWJ175 BGF175 BQB175 BZX175 CJT175 CTP175 DDL175 DNH175 DXD175 EGZ175 EQV175 FAR175 FKN175 FUJ175 GEF175 GOB175 GXX175 HHT175 HRP175 IBL175 ILH175 IVD175 JEZ175 JOV175 JYR175 KIN175 KSJ175 LCF175 LMB175 LVX175 MFT175 MPP175 MZL175 NJH175 NTD175 OCZ175 OMV175 OWR175 PGN175 PQJ175 QAF175 QKB175 QTX175 RDT175 RNP175 RXL175 SHH175 SRD175 TAZ175 TKV175 TUR175 UEN175 UOJ175 UYF175 VIB175 VRX175 WBT175 WLP175 WVL175 E176 JA176 SW176 ACS176 AMO176 AWK176 BGG176 BQC176 BZY176 CJU176 CTQ176 DDM176 DNI176 DXE176 EHA176 EQW176 FAS176 FKO176 FUK176 GEG176 GOC176 GXY176 HHU176 HRQ176 IBM176 ILI176 IVE176 JFA176 JOW176 JYS176 KIO176 KSK176 LCG176 LMC176 LVY176 MFU176 MPQ176 MZM176 NJI176 NTE176 ODA176 OMW176 OWS176 PGO176 PQK176 QAG176 QKC176 QTY176 RDU176 RNQ176 RXM176 SHI176 SRE176 TBA176 TKW176 TUS176 UEO176 UOK176 UYG176 VIC176 VRY176 WBU176 WLQ176 WVM176 E23:E25 E159:E162 JA159:JA162 SW159:SW162 ACS159:ACS162 AMO159:AMO162 AWK159:AWK162 BGG159:BGG162 BQC159:BQC162 BZY159:BZY162 CJU159:CJU162 CTQ159:CTQ162 DDM159:DDM162 DNI159:DNI162 DXE159:DXE162 EHA159:EHA162 EQW159:EQW162 FAS159:FAS162 FKO159:FKO162 FUK159:FUK162 GEG159:GEG162 GOC159:GOC162 GXY159:GXY162 HHU159:HHU162 HRQ159:HRQ162 IBM159:IBM162 ILI159:ILI162 IVE159:IVE162 JFA159:JFA162 JOW159:JOW162 JYS159:JYS162 KIO159:KIO162 KSK159:KSK162 LCG159:LCG162 LMC159:LMC162 LVY159:LVY162 MFU159:MFU162 MPQ159:MPQ162 MZM159:MZM162 NJI159:NJI162 NTE159:NTE162 ODA159:ODA162 OMW159:OMW162 OWS159:OWS162 PGO159:PGO162 PQK159:PQK162 QAG159:QAG162 QKC159:QKC162 QTY159:QTY162 RDU159:RDU162 RNQ159:RNQ162 RXM159:RXM162 SHI159:SHI162 SRE159:SRE162 TBA159:TBA162 TKW159:TKW162 TUS159:TUS162 UEO159:UEO162 UOK159:UOK162 UYG159:UYG162 VIC159:VIC162 VRY159:VRY162 WBU159:WBU162 WLQ159:WLQ162 WVM159:WVM162">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E26 E27 E28 E135 E164 JA164 SW164 ACS164 AMO164 AWK164 BGG164 BQC164 BZY164 CJU164 CTQ164 DDM164 DNI164 DXE164 EHA164 EQW164 FAS164 FKO164 FUK164 GEG164 GOC164 GXY164 HHU164 HRQ164 IBM164 ILI164 IVE164 JFA164 JOW164 JYS164 KIO164 KSK164 LCG164 LMC164 LVY164 MFU164 MPQ164 MZM164 NJI164 NTE164 ODA164 OMW164 OWS164 PGO164 PQK164 QAG164 QKC164 QTY164 RDU164 RNQ164 RXM164 SHI164 SRE164 TBA164 TKW164 TUS164 UEO164 UOK164 UYG164 VIC164 VRY164 WBU164 WLQ164 WVM164 E165 JA165 SW165 ACS165 AMO165 AWK165 BGG165 BQC165 BZY165 CJU165 CTQ165 DDM165 DNI165 DXE165 EHA165 EQW165 FAS165 FKO165 FUK165 GEG165 GOC165 GXY165 HHU165 HRQ165 IBM165 ILI165 IVE165 JFA165 JOW165 JYS165 KIO165 KSK165 LCG165 LMC165 LVY165 MFU165 MPQ165 MZM165 NJI165 NTE165 ODA165 OMW165 OWS165 PGO165 PQK165 QAG165 QKC165 QTY165 RDU165 RNQ165 RXM165 SHI165 SRE165 TBA165 TKW165 TUS165 UEO165 UOK165 UYG165 VIC165 VRY165 WBU165 WLQ165 WVM165 E166 JA166 SW166 ACS166 AMO166 AWK166 BGG166 BQC166 BZY166 CJU166 CTQ166 DDM166 DNI166 DXE166 EHA166 EQW166 FAS166 FKO166 FUK166 GEG166 GOC166 GXY166 HHU166 HRQ166 IBM166 ILI166 IVE166 JFA166 JOW166 JYS166 KIO166 KSK166 LCG166 LMC166 LVY166 MFU166 MPQ166 MZM166 NJI166 NTE166 ODA166 OMW166 OWS166 PGO166 PQK166 QAG166 QKC166 QTY166 RDU166 RNQ166 RXM166 SHI166 SRE166 TBA166 TKW166 TUS166 UEO166 UOK166 UYG166 VIC166 VRY166 WBU166 WLQ166 WVM166 E167 JA167 SW167 ACS167 AMO167 AWK167 BGG167 BQC167 BZY167 CJU167 CTQ167 DDM167 DNI167 DXE167 EHA167 EQW167 FAS167 FKO167 FUK167 GEG167 GOC167 GXY167 HHU167 HRQ167 IBM167 ILI167 IVE167 JFA167 JOW167 JYS167 KIO167 KSK167 LCG167 LMC167 LVY167 MFU167 MPQ167 MZM167 NJI167 NTE167 ODA167 OMW167 OWS167 PGO167 PQK167 QAG167 QKC167 QTY167 RDU167 RNQ167 RXM167 SHI167 SRE167 TBA167 TKW167 TUS167 UEO167 UOK167 UYG167 VIC167 VRY167 WBU167 WLQ167 WVM167 E168 JA168 SW168 ACS168 AMO168 AWK168 BGG168 BQC168 BZY168 CJU168 CTQ168 DDM168 DNI168 DXE168 EHA168 EQW168 FAS168 FKO168 FUK168 GEG168 GOC168 GXY168 HHU168 HRQ168 IBM168 ILI168 IVE168 JFA168 JOW168 JYS168 KIO168 KSK168 LCG168 LMC168 LVY168 MFU168 MPQ168 MZM168 NJI168 NTE168 ODA168 OMW168 OWS168 PGO168 PQK168 QAG168 QKC168 QTY168 RDU168 RNQ168 RXM168 SHI168 SRE168 TBA168 TKW168 TUS168 UEO168 UOK168 UYG168 VIC168 VRY168 WBU168 WLQ168 WVM168 E169 JA169 SW169 ACS169 AMO169 AWK169 BGG169 BQC169 BZY169 CJU169 CTQ169 DDM169 DNI169 DXE169 EHA169 EQW169 FAS169 FKO169 FUK169 GEG169 GOC169 GXY169 HHU169 HRQ169 IBM169 ILI169 IVE169 JFA169 JOW169 JYS169 KIO169 KSK169 LCG169 LMC169 LVY169 MFU169 MPQ169 MZM169 NJI169 NTE169 ODA169 OMW169 OWS169 PGO169 PQK169 QAG169 QKC169 QTY169 RDU169 RNQ169 RXM169 SHI169 SRE169 TBA169 TKW169 TUS169 UEO169 UOK169 UYG169 VIC169 VRY169 WBU169 WLQ169 WVM169 E170 JA170 SW170 ACS170 AMO170 AWK170 BGG170 BQC170 BZY170 CJU170 CTQ170 DDM170 DNI170 DXE170 EHA170 EQW170 FAS170 FKO170 FUK170 GEG170 GOC170 GXY170 HHU170 HRQ170 IBM170 ILI170 IVE170 JFA170 JOW170 JYS170 KIO170 KSK170 LCG170 LMC170 LVY170 MFU170 MPQ170 MZM170 NJI170 NTE170 ODA170 OMW170 OWS170 PGO170 PQK170 QAG170 QKC170 QTY170 RDU170 RNQ170 RXM170 SHI170 SRE170 TBA170 TKW170 TUS170 UEO170 UOK170 UYG170 VIC170 VRY170 WBU170 WLQ170 WVM170 E171 JA171 SW171 ACS171 AMO171 AWK171 BGG171 BQC171 BZY171 CJU171 CTQ171 DDM171 DNI171 DXE171 EHA171 EQW171 FAS171 FKO171 FUK171 GEG171 GOC171 GXY171 HHU171 HRQ171 IBM171 ILI171 IVE171 JFA171 JOW171 JYS171 KIO171 KSK171 LCG171 LMC171 LVY171 MFU171 MPQ171 MZM171 NJI171 NTE171 ODA171 OMW171 OWS171 PGO171 PQK171 QAG171 QKC171 QTY171 RDU171 RNQ171 RXM171 SHI171 SRE171 TBA171 TKW171 TUS171 UEO171 UOK171 UYG171 VIC171 VRY171 WBU171 WLQ171 WVM171 E172 JA172 SW172 ACS172 AMO172 AWK172 BGG172 BQC172 BZY172 CJU172 CTQ172 DDM172 DNI172 DXE172 EHA172 EQW172 FAS172 FKO172 FUK172 GEG172 GOC172 GXY172 HHU172 HRQ172 IBM172 ILI172 IVE172 JFA172 JOW172 JYS172 KIO172 KSK172 LCG172 LMC172 LVY172 MFU172 MPQ172 MZM172 NJI172 NTE172 ODA172 OMW172 OWS172 PGO172 PQK172 QAG172 QKC172 QTY172 RDU172 RNQ172 RXM172 SHI172 SRE172 TBA172 TKW172 TUS172 UEO172 UOK172 UYG172 VIC172 VRY172 WBU172 WLQ172 WVM172 E173 JA173 SW173 ACS173 AMO173 AWK173 BGG173 BQC173 BZY173 CJU173 CTQ173 DDM173 DNI173 DXE173 EHA173 EQW173 FAS173 FKO173 FUK173 GEG173 GOC173 GXY173 HHU173 HRQ173 IBM173 ILI173 IVE173 JFA173 JOW173 JYS173 KIO173 KSK173 LCG173 LMC173 LVY173 MFU173 MPQ173 MZM173 NJI173 NTE173 ODA173 OMW173 OWS173 PGO173 PQK173 QAG173 QKC173 QTY173 RDU173 RNQ173 RXM173 SHI173 SRE173 TBA173 TKW173 TUS173 UEO173 UOK173 UYG173 VIC173 VRY173 WBU173 WLQ173 WVM173 E174 JA174 SW174 ACS174 AMO174 AWK174 BGG174 BQC174 BZY174 CJU174 CTQ174 DDM174 DNI174 DXE174 EHA174 EQW174 FAS174 FKO174 FUK174 GEG174 GOC174 GXY174 HHU174 HRQ174 IBM174 ILI174 IVE174 JFA174 JOW174 JYS174 KIO174 KSK174 LCG174 LMC174 LVY174 MFU174 MPQ174 MZM174 NJI174 NTE174 ODA174 OMW174 OWS174 PGO174 PQK174 QAG174 QKC174 QTY174 RDU174 RNQ174 RXM174 SHI174 SRE174 TBA174 TKW174 TUS174 UEO174 UOK174 UYG174 VIC174 VRY174 WBU174 WLQ174 WVM174 E175 JA175 SW175 ACS175 AMO175 AWK175 BGG175 BQC175 BZY175 CJU175 CTQ175 DDM175 DNI175 DXE175 EHA175 EQW175 FAS175 FKO175 FUK175 GEG175 GOC175 GXY175 HHU175 HRQ175 IBM175 ILI175 IVE175 JFA175 JOW175 JYS175 KIO175 KSK175 LCG175 LMC175 LVY175 MFU175 MPQ175 MZM175 NJI175 NTE175 ODA175 OMW175 OWS175 PGO175 PQK175 QAG175 QKC175 QTY175 RDU175 RNQ175 RXM175 SHI175 SRE175 TBA175 TKW175 TUS175 UEO175 UOK175 UYG175 VIC175 VRY175 WBU175 WLQ175 WVM175 D176 IZ176 SV176 ACR176 AMN176 AWJ176 BGF176 BQB176 BZX176 CJT176 CTP176 DDL176 DNH176 DXD176 EGZ176 EQV176 FAR176 FKN176 FUJ176 GEF176 GOB176 GXX176 HHT176 HRP176 IBL176 ILH176 IVD176 JEZ176 JOV176 JYR176 KIN176 KSJ176 LCF176 LMB176 LVX176 MFT176 MPP176 MZL176 NJH176 NTD176 OCZ176 OMV176 OWR176 PGN176 PQJ176 QAF176 QKB176 QTX176 RDT176 RNP176 RXL176 SHH176 SRD176 TAZ176 TKV176 TUR176 UEN176 UOJ176 UYF176 VIB176 VRX176 WBT176 WLP176 WVL176 E177 JA177 SW177 ACS177 AMO177 AWK177 BGG177 BQC177 BZY177 CJU177 CTQ177 DDM177 DNI177 DXE177 EHA177 EQW177 FAS177 FKO177 FUK177 GEG177 GOC177 GXY177 HHU177 HRQ177 IBM177 ILI177 IVE177 JFA177 JOW177 JYS177 KIO177 KSK177 LCG177 LMC177 LVY177 MFU177 MPQ177 MZM177 NJI177 NTE177 ODA177 OMW177 OWS177 PGO177 PQK177 QAG177 QKC177 QTY177 RDU177 RNQ177 RXM177 SHI177 SRE177 TBA177 TKW177 TUS177 UEO177 UOK177 UYG177 VIC177 VRY177 WBU177 WLQ177 WVM177 E23:E25 E160:E163 JA160:JA163 SW160:SW163 ACS160:ACS163 AMO160:AMO163 AWK160:AWK163 BGG160:BGG163 BQC160:BQC163 BZY160:BZY163 CJU160:CJU163 CTQ160:CTQ163 DDM160:DDM163 DNI160:DNI163 DXE160:DXE163 EHA160:EHA163 EQW160:EQW163 FAS160:FAS163 FKO160:FKO163 FUK160:FUK163 GEG160:GEG163 GOC160:GOC163 GXY160:GXY163 HHU160:HHU163 HRQ160:HRQ163 IBM160:IBM163 ILI160:ILI163 IVE160:IVE163 JFA160:JFA163 JOW160:JOW163 JYS160:JYS163 KIO160:KIO163 KSK160:KSK163 LCG160:LCG163 LMC160:LMC163 LVY160:LVY163 MFU160:MFU163 MPQ160:MPQ163 MZM160:MZM163 NJI160:NJI163 NTE160:NTE163 ODA160:ODA163 OMW160:OMW163 OWS160:OWS163 PGO160:PGO163 PQK160:PQK163 QAG160:QAG163 QKC160:QKC163 QTY160:QTY163 RDU160:RDU163 RNQ160:RNQ163 RXM160:RXM163 SHI160:SHI163 SRE160:SRE163 TBA160:TBA163 TKW160:TKW163 TUS160:TUS163 UEO160:UEO163 UOK160:UOK163 UYG160:UYG163 VIC160:VIC163 VRY160:VRY163 WBU160:WBU163 WLQ160:WLQ163 WVM160:WVM163">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>

--- a/documents/汽车维修保养管理系统功能列表.xlsx
+++ b/documents/汽车维修保养管理系统功能列表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251">
   <si>
     <t>角色分析</t>
   </si>
@@ -93,6 +93,15 @@
     <t>6.派工领料增加派工功能</t>
   </si>
   <si>
+    <t>7.供应商下单记录的增修状态修改移除</t>
+  </si>
+  <si>
+    <t>8.供应商支付记录的增修状态修改移除</t>
+  </si>
+  <si>
+    <t>9.电话预约改成预约</t>
+  </si>
+  <si>
     <t>角色变动：</t>
   </si>
   <si>
@@ -132,6 +141,9 @@
     <t>公司信息修改</t>
   </si>
   <si>
+    <t>汽修公司管理员, 系统管理员</t>
+  </si>
+  <si>
     <t>公司信息查看</t>
   </si>
   <si>
@@ -201,7 +213,7 @@
     <t>保养项目分页查看</t>
   </si>
   <si>
-    <t>汽修公司管理员，汽修公司</t>
+    <t>汽修公司管理员，汽修公司, 系统管理员</t>
   </si>
   <si>
     <t>保养项目状态修改</t>
@@ -237,7 +249,7 @@
     <t>人员基本信息添加</t>
   </si>
   <si>
-    <t>汽修公司管理员，人力资源管理部</t>
+    <t>汽修公司管理员，人力资源管理部, 系统管理员</t>
   </si>
   <si>
     <t>人员基本信息分页查询</t>
@@ -259,6 +271,9 @@
   </si>
   <si>
     <t>工单分页查询</t>
+  </si>
+  <si>
+    <t>汽修公司管理员，汽修公司的任意员工查看自己的, 系统管理员</t>
   </si>
   <si>
     <t>工单状态修改</t>
@@ -302,59 +317,27 @@
     <t>供应商信息状态修改</t>
   </si>
   <si>
-    <t>下单记录的添加</t>
+    <t>配件管理</t>
+  </si>
+  <si>
+    <t>配件类别的添加</t>
+  </si>
+  <si>
+    <t>配件类别的状态修改</t>
+  </si>
+  <si>
+    <t>配件类别的分页查询</t>
+  </si>
+  <si>
+    <t>配件类别的修改</t>
+  </si>
+  <si>
+    <t>配件的添加</t>
   </si>
   <si>
     <t>汽修公司管理员，汽修公司采购员</t>
   </si>
   <si>
-    <t>下单记录的修改</t>
-  </si>
-  <si>
-    <t>下单记录分页查看</t>
-  </si>
-  <si>
-    <t>下单记录状态修改</t>
-  </si>
-  <si>
-    <t>下单统计功能</t>
-  </si>
-  <si>
-    <t>汽修公司管理员，汽修公司采购员
-可以把此菜单功能放入报表统计模块</t>
-  </si>
-  <si>
-    <t>支付记录分页查询</t>
-  </si>
-  <si>
-    <t>支付记录状态修改</t>
-  </si>
-  <si>
-    <t>汽修公司管理员，汽修公司采购员
-表示是否已支付的问题</t>
-  </si>
-  <si>
-    <t>支付统计</t>
-  </si>
-  <si>
-    <t>配件管理</t>
-  </si>
-  <si>
-    <t>配件类别的添加</t>
-  </si>
-  <si>
-    <t>配件类别的状态修改</t>
-  </si>
-  <si>
-    <t>配件类别的分页查询</t>
-  </si>
-  <si>
-    <t>配件类别的修改</t>
-  </si>
-  <si>
-    <t>配件的添加</t>
-  </si>
-  <si>
     <t>配件的状态修改</t>
   </si>
   <si>
@@ -364,6 +347,9 @@
     <t>配件的分页查询</t>
   </si>
   <si>
+    <t>汽修公司管理员，汽修公司采购员, 系统管理员</t>
+  </si>
+  <si>
     <t>配件采购信息的添加</t>
   </si>
   <si>
@@ -391,29 +377,35 @@
     <t>配件销售的分页查询</t>
   </si>
   <si>
+    <t>汽修公司管理员，汽修公司销售员, 系统管理员</t>
+  </si>
+  <si>
     <t>库存统计功能</t>
   </si>
   <si>
-    <t>汽修公司管理员，汽修公司采购员，汽修公司销售员，汽修公司库管人员
+    <t>汽修公司管理员，汽修公司采购员，汽修公司销售员，汽修公司库管人员, 系统管理员
 放到报表统计模块中</t>
   </si>
   <si>
     <t>维修保养预约</t>
   </si>
   <si>
-    <t>电话预约添加</t>
+    <t>预约添加</t>
   </si>
   <si>
     <t>汽修公司管理员，汽修公司接待员</t>
   </si>
   <si>
-    <t>电话预约修改</t>
-  </si>
-  <si>
-    <t>电话预约分页查看</t>
-  </si>
-  <si>
-    <t>电话预约状态修改</t>
+    <t>预约修改</t>
+  </si>
+  <si>
+    <t>预约分页查看</t>
+  </si>
+  <si>
+    <t>汽修公司管理员，汽修公司接待员, 系统管理员</t>
+  </si>
+  <si>
+    <t>预约状态修改</t>
   </si>
   <si>
     <t>微信预约添加</t>
@@ -437,7 +429,7 @@
     <t>接待登记添加</t>
   </si>
   <si>
-    <t>汽修公司管理员，汽修公司接待员
+    <t>汽修公司管理员，汽修公司接待员, 系统管理员
 两种情况，预约过的基本信息可以从预约中拿过来，如果没有预约过，则所有信息都必须手动输入</t>
   </si>
   <si>
@@ -497,6 +489,9 @@
     <t>分页查看所有物料清单</t>
   </si>
   <si>
+    <t>汽修公司管理员,汽修公司库管人员,系统管理员</t>
+  </si>
+  <si>
     <t>物料清单添加</t>
   </si>
   <si>
@@ -538,6 +533,9 @@
     <t>维修保养进度分页查看</t>
   </si>
   <si>
+    <t>汽修公司管理员，汽修公司技师，汽修公司接待员, 系统管理员</t>
+  </si>
+  <si>
     <t>微信查看维修保养进度</t>
   </si>
   <si>
@@ -587,13 +585,16 @@
     <t>维修保养记录分页查看</t>
   </si>
   <si>
+    <t>汽修公司管理员，汽修公司接待员，车主, 系统管理员</t>
+  </si>
+  <si>
     <t>否</t>
   </si>
   <si>
     <t>需提醒维修保养车辆的分页查看</t>
   </si>
   <si>
-    <t>汽修公司管理员，汽修公司接待员
+    <t>汽修公司管理员，汽修公司接待员, 系统管理员
 根据上次保养的时间来提醒，过6个月</t>
   </si>
   <si>
@@ -669,6 +670,9 @@
     <t>支出信息的分页查询</t>
   </si>
   <si>
+    <t>汽修公司管理员，汽修公司财务人员, 系统管理员</t>
+  </si>
+  <si>
     <t>支出信息的状态修改</t>
   </si>
   <si>
@@ -708,10 +712,20 @@
     <t>天数</t>
   </si>
   <si>
+    <t>支付统计</t>
+  </si>
+  <si>
+    <t>汽修公司管理员，汽修公司采购员, 系统管理员
+可以把此菜单功能放入报表统计模块</t>
+  </si>
+  <si>
+    <t>下单统计功能</t>
+  </si>
+  <si>
     <t>维修保养情况统计</t>
   </si>
   <si>
-    <t>汽修公司管理员
+    <t>汽修公司管理员, 系统管理员
 可按日，周，月，季度，年进行查看</t>
   </si>
   <si>
@@ -783,10 +797,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -828,7 +842,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -843,14 +879,84 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -873,99 +979,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -980,19 +994,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1010,13 +1030,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1028,13 +1042,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1052,31 +1096,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1094,73 +1144,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1171,6 +1185,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1188,8 +1211,23 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1205,6 +1243,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1227,47 +1280,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1279,10 +1293,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1291,133 +1305,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1449,35 +1463,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1834,17 +1848,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F236"/>
+  <dimension ref="A1:F231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C218" sqref="C218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="29.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="31.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="46.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="54.25" style="2" customWidth="1"/>
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1977,131 +1991,134 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="C23" s="1"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="A25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="1"/>
       <c r="C25" s="1"/>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+    <row r="26" spans="1:3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="28" spans="1:1">
       <c r="A28" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="2" t="s">
+      <c r="B29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="2" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
       <c r="A36" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3">
       <c r="B37" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="2:3">
       <c r="B38" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="2:3">
       <c r="B39" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="2:3">
       <c r="B41" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>4</v>
@@ -2109,7 +2126,7 @@
     </row>
     <row r="42" spans="2:3">
       <c r="B42" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>4</v>
@@ -2117,7 +2134,7 @@
     </row>
     <row r="43" spans="2:3">
       <c r="B43" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>4</v>
@@ -2125,23 +2142,23 @@
     </row>
     <row r="44" spans="2:3">
       <c r="B44" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="2:3">
       <c r="B45" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="2:3">
       <c r="B46" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>4</v>
@@ -2149,7 +2166,7 @@
     </row>
     <row r="47" spans="2:3">
       <c r="B47" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>4</v>
@@ -2157,23 +2174,23 @@
     </row>
     <row r="48" spans="2:3">
       <c r="B48" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="2:3">
       <c r="B49" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="2:3">
       <c r="B50" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>4</v>
@@ -2181,7 +2198,7 @@
     </row>
     <row r="51" spans="2:3">
       <c r="B51" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>4</v>
@@ -2189,23 +2206,23 @@
     </row>
     <row r="52" spans="2:3">
       <c r="B52" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="2:3">
       <c r="B53" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="2:3">
       <c r="B54" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>4</v>
@@ -2213,7 +2230,7 @@
     </row>
     <row r="55" spans="2:3">
       <c r="B55" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>4</v>
@@ -2221,31 +2238,31 @@
     </row>
     <row r="56" spans="2:3">
       <c r="B56" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="2:3">
       <c r="B57" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="2:3">
       <c r="B58" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="2:3">
       <c r="B59" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>6</v>
@@ -2253,23 +2270,23 @@
     </row>
     <row r="60" spans="2:3">
       <c r="B60" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="2:3">
       <c r="B61" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="2:3">
       <c r="B62" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>6</v>
@@ -2277,7 +2294,7 @@
     </row>
     <row r="63" spans="2:3">
       <c r="B63" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>6</v>
@@ -2285,23 +2302,23 @@
     </row>
     <row r="64" spans="2:3">
       <c r="B64" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="2:3">
       <c r="B65" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="2:3">
       <c r="B66" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>6</v>
@@ -2309,7 +2326,7 @@
     </row>
     <row r="67" spans="2:3">
       <c r="B67" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>6</v>
@@ -2317,147 +2334,147 @@
     </row>
     <row r="68" spans="2:3">
       <c r="B68" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="2:3">
       <c r="B69" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C69" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3">
+      <c r="B70" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:1">
       <c r="A72" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C72" s="2" t="s">
+      <c r="B73" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D72" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="73" spans="2:3">
-      <c r="B73" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>73</v>
+      <c r="D73" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="74" spans="2:3">
-      <c r="B74" s="4" t="s">
-        <v>74</v>
+      <c r="B74" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="75" spans="2:3">
       <c r="B75" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="76" spans="2:3">
       <c r="B76" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="77" s="1" customFormat="1" spans="2:3">
-      <c r="B77" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="78" spans="2:3">
-      <c r="B78" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>79</v>
+    </row>
+    <row r="77" spans="2:3">
+      <c r="B77" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" s="1" customFormat="1" spans="2:3">
+      <c r="B78" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="79" spans="2:3">
       <c r="B79" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="80" ht="40.5" spans="2:3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3">
       <c r="B80" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="81" spans="2:3">
+        <v>84</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="81" ht="40.5" spans="2:3">
       <c r="B81" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>86</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3">
+      <c r="B82" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
       <c r="A84" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C84" s="2" t="s">
+      <c r="B85" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D84" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="85" spans="2:3">
-      <c r="B85" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>6</v>
+      <c r="D85" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="86" spans="2:3">
       <c r="B86" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>6</v>
@@ -2465,15 +2482,15 @@
     </row>
     <row r="87" spans="2:3">
       <c r="B87" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
     </row>
     <row r="88" spans="2:3">
       <c r="B88" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>6</v>
@@ -2481,7 +2498,7 @@
     </row>
     <row r="89" spans="2:3">
       <c r="B89" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>6</v>
@@ -2489,7 +2506,7 @@
     </row>
     <row r="90" spans="2:3">
       <c r="B90" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>6</v>
@@ -2497,7 +2514,7 @@
     </row>
     <row r="91" spans="2:3">
       <c r="B91" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>6</v>
@@ -2505,1101 +2522,1119 @@
     </row>
     <row r="92" spans="2:3">
       <c r="B92" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
     </row>
     <row r="93" spans="2:3">
       <c r="B93" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="94" spans="2:3">
-      <c r="B94" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="95" spans="2:3">
-      <c r="B95" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="96" spans="2:3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="B96" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97" ht="27" spans="2:3">
+        <v>36</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="7"/>
       <c r="B97" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C97" s="6" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="98" ht="27" spans="2:3">
+      <c r="C97" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="7"/>
       <c r="B98" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C98" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="99" ht="27" spans="2:3">
+      <c r="C98" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="7"/>
       <c r="B99" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C99" s="6" t="s">
+      <c r="C99" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="7"/>
+      <c r="B100" s="7" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="100" ht="27" spans="2:3">
-      <c r="B100" s="7" t="s">
+      <c r="C100" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="7"/>
+      <c r="B101" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C100" s="6" t="s">
-        <v>100</v>
-      </c>
+      <c r="C101" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" s="8" t="s">
+      <c r="A102" s="7"/>
+      <c r="B102" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C102" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B102" s="8"/>
-      <c r="C102" s="8"/>
-      <c r="D102" s="8"/>
-      <c r="E102" s="8"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103" s="8" t="s">
+      <c r="A103" s="7"/>
+      <c r="B103" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="7"/>
+      <c r="B104" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7"/>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="7"/>
+      <c r="B105" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7"/>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="7"/>
+      <c r="B106" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7"/>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="7"/>
+      <c r="B107" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7"/>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="7"/>
+      <c r="B108" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D108" s="7"/>
+      <c r="E108" s="7"/>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="7"/>
+      <c r="B109" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D109" s="7"/>
+      <c r="E109" s="7"/>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="7"/>
+      <c r="B110" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D110" s="7"/>
+      <c r="E110" s="7"/>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="7"/>
+      <c r="B111" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D111" s="7"/>
+      <c r="E111" s="7"/>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="7"/>
+      <c r="B112" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D112" s="7"/>
+      <c r="E112" s="7"/>
+    </row>
+    <row r="113" ht="40.5" spans="1:5">
+      <c r="A113" s="7"/>
+      <c r="B113" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D113" s="7"/>
+      <c r="E113" s="7"/>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B103" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C103" s="8" t="s">
+      <c r="B116" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C116" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D103" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E103" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104" s="8"/>
-      <c r="B104" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C104" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D104" s="8"/>
-      <c r="E104" s="8"/>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="A105" s="8"/>
-      <c r="B105" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C105" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D105" s="8"/>
-      <c r="E105" s="8"/>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="A106" s="8"/>
-      <c r="B106" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C106" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D106" s="8"/>
-      <c r="E106" s="8"/>
-    </row>
-    <row r="107" spans="1:5">
-      <c r="A107" s="8"/>
-      <c r="B107" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C107" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D107" s="8"/>
-      <c r="E107" s="8"/>
-    </row>
-    <row r="108" spans="1:5">
-      <c r="A108" s="8"/>
-      <c r="B108" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C108" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D108" s="8"/>
-      <c r="E108" s="8"/>
-    </row>
-    <row r="109" spans="1:5">
-      <c r="A109" s="8"/>
-      <c r="B109" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C109" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D109" s="8"/>
-      <c r="E109" s="8"/>
-    </row>
-    <row r="110" spans="1:5">
-      <c r="A110" s="8"/>
-      <c r="B110" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C110" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D110" s="8"/>
-      <c r="E110" s="8"/>
-    </row>
-    <row r="111" spans="1:5">
-      <c r="A111" s="8"/>
-      <c r="B111" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C111" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D111" s="8"/>
-      <c r="E111" s="8"/>
-    </row>
-    <row r="112" spans="1:5">
-      <c r="A112" s="8"/>
-      <c r="B112" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C112" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D112" s="8"/>
-      <c r="E112" s="8"/>
-    </row>
-    <row r="113" spans="1:5">
-      <c r="A113" s="8"/>
-      <c r="B113" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C113" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D113" s="8"/>
-      <c r="E113" s="8"/>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114" s="8"/>
-      <c r="B114" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="C114" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D114" s="8"/>
-      <c r="E114" s="8"/>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115" s="8"/>
-      <c r="B115" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C115" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D115" s="8"/>
-      <c r="E115" s="8"/>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116" s="8"/>
-      <c r="B116" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C116" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D116" s="8"/>
-      <c r="E116" s="8"/>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="A117" s="8"/>
-      <c r="B117" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="C117" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D117" s="8"/>
-      <c r="E117" s="8"/>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="A118" s="8"/>
-      <c r="B118" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C118" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D118" s="8"/>
-      <c r="E118" s="8"/>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="A119" s="8"/>
-      <c r="B119" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C119" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D119" s="8"/>
-      <c r="E119" s="8"/>
-    </row>
-    <row r="120" ht="40.5" spans="1:5">
-      <c r="A120" s="8"/>
-      <c r="B120" s="8" t="s">
+      <c r="D116" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E116" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3">
+      <c r="B117" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C120" s="9" t="s">
+      <c r="C117" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D120" s="8"/>
-      <c r="E120" s="8"/>
-    </row>
-    <row r="122" spans="1:1">
-      <c r="A122" s="2" t="s">
+    </row>
+    <row r="118" spans="2:3">
+      <c r="B118" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="123" spans="1:5">
-      <c r="A123" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B123" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C123" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D123" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E123" s="10" t="s">
-        <v>35</v>
+      <c r="C118" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3">
+      <c r="B119" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3">
+      <c r="B120" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3">
+      <c r="B121" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3">
+      <c r="B122" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3">
+      <c r="B123" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="124" spans="2:3">
       <c r="B124" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="C124" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="125" customFormat="1" spans="1:6">
+      <c r="A125" s="2"/>
+      <c r="B125" s="2"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+    </row>
+    <row r="126" s="2" customFormat="1" spans="1:1">
+      <c r="A126" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="127" s="2" customFormat="1" spans="1:5">
+      <c r="A127" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D127" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E127" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="128" ht="40.5" spans="1:5">
+      <c r="A128" s="7"/>
+      <c r="B128" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D128" s="7"/>
+      <c r="E128" s="7"/>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="7"/>
+      <c r="B129" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D129" s="7"/>
+      <c r="E129" s="7"/>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="7"/>
+      <c r="B130" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C130" s="7" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="125" spans="2:3">
-      <c r="B125" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C125" s="2" t="s">
+      <c r="D130" s="7"/>
+      <c r="E130" s="7"/>
+    </row>
+    <row r="131" ht="40.5" spans="1:5">
+      <c r="A131" s="7"/>
+      <c r="B131" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D131" s="7"/>
+      <c r="E131" s="7"/>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="7"/>
+      <c r="B132" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D132" s="7"/>
+      <c r="E132" s="7"/>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="7"/>
+      <c r="B133" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C133" s="7" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="126" spans="2:3">
-      <c r="B126" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C126" s="2" t="s">
+      <c r="D133" s="7"/>
+      <c r="E133" s="7"/>
+    </row>
+    <row r="134" ht="27" spans="1:5">
+      <c r="A134" s="7"/>
+      <c r="B134" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D134" s="7"/>
+      <c r="E134" s="7"/>
+    </row>
+    <row r="135" ht="27" spans="1:5">
+      <c r="A135" s="7"/>
+      <c r="B135" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D135" s="7"/>
+      <c r="E135" s="7"/>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="7"/>
+      <c r="B136" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D136" s="7"/>
+      <c r="E136" s="7"/>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="7"/>
+      <c r="B137" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D137" s="7"/>
+      <c r="E137" s="7"/>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="7"/>
+      <c r="B138" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D138" s="7"/>
+      <c r="E138" s="7"/>
+    </row>
+    <row r="139" ht="27" spans="1:5">
+      <c r="A139" s="7"/>
+      <c r="B139" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D139" s="7"/>
+      <c r="E139" s="7"/>
+    </row>
+    <row r="140" customFormat="1" spans="1:6">
+      <c r="A140" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F140" s="11"/>
+    </row>
+    <row r="141" customFormat="1" spans="1:6">
+      <c r="A141" t="s">
+        <v>1</v>
+      </c>
+      <c r="B141" t="s">
+        <v>36</v>
+      </c>
+      <c r="C141" t="s">
+        <v>3</v>
+      </c>
+      <c r="D141" t="s">
+        <v>37</v>
+      </c>
+      <c r="E141" t="s">
+        <v>38</v>
+      </c>
+      <c r="F141" s="11"/>
+    </row>
+    <row r="142" customFormat="1" spans="2:6">
+      <c r="B142" t="s">
+        <v>153</v>
+      </c>
+      <c r="C142" t="s">
+        <v>154</v>
+      </c>
+      <c r="F142" s="11"/>
+    </row>
+    <row r="143" customFormat="1" spans="2:6">
+      <c r="B143" t="s">
+        <v>155</v>
+      </c>
+      <c r="C143" t="s">
+        <v>156</v>
+      </c>
+      <c r="F143" s="11"/>
+    </row>
+    <row r="144" s="3" customFormat="1" spans="2:6">
+      <c r="B144" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F144" s="12"/>
+    </row>
+    <row r="145" customFormat="1" spans="2:3">
+      <c r="B145" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="C145" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="146" customFormat="1" spans="2:3">
+      <c r="B146" t="s">
+        <v>160</v>
+      </c>
+      <c r="C146" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" customFormat="1" spans="2:3">
+      <c r="B147" t="s">
+        <v>161</v>
+      </c>
+      <c r="C147" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="151" ht="40.5" spans="2:5">
+      <c r="B151" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E151" s="9"/>
+    </row>
+    <row r="152" spans="2:5">
+      <c r="B152" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="E152" s="9"/>
+    </row>
+    <row r="153" spans="2:5">
+      <c r="B153" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E153" s="9"/>
+    </row>
+    <row r="154" spans="5:5">
+      <c r="E154" s="9"/>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="157" spans="2:5">
+      <c r="B157" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E157" s="9"/>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="B159" s="14"/>
+      <c r="C159" s="14"/>
+      <c r="D159" s="14"/>
+      <c r="E159" s="14"/>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B160" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C160" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D160" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="14"/>
+      <c r="B161" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="C161" s="14" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="127" spans="2:3">
-      <c r="B127" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="128" spans="2:3">
-      <c r="B128" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C128" s="2" t="s">
+      <c r="D161" s="14"/>
+      <c r="E161" s="14"/>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="14"/>
+      <c r="B162" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="C162" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D162" s="14"/>
+      <c r="E162" s="14"/>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="14"/>
+      <c r="B163" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="C163" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="D163" s="14"/>
+      <c r="E163" s="14"/>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="14"/>
+      <c r="B164" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="C164" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D164" s="14"/>
+      <c r="E164" s="14"/>
+    </row>
+    <row r="165" ht="27" spans="1:5">
+      <c r="A165" s="14"/>
+      <c r="B165" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="C165" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="D165" s="14"/>
+      <c r="E165" s="14"/>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="14"/>
+      <c r="B166" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="C166" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D166" s="14"/>
+      <c r="E166" s="14"/>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="14"/>
+      <c r="B167" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="C167" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="D167" s="14"/>
+      <c r="E167" s="14"/>
+    </row>
+    <row r="169" s="2" customFormat="1" spans="1:1">
+      <c r="A169" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="170" s="2" customFormat="1" spans="1:1">
+      <c r="A170" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="171" s="2" customFormat="1" spans="1:5">
+      <c r="A171" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="172" s="2" customFormat="1" spans="2:5">
+      <c r="B172" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="173" s="1" customFormat="1" ht="27" spans="2:3">
+      <c r="B173" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C173" s="17" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="174" s="1" customFormat="1" ht="27" spans="2:3">
+      <c r="B174" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="C174" s="17" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="175" s="2" customFormat="1" ht="27" spans="2:3">
+      <c r="B175" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="176" s="2" customFormat="1" ht="40.5" spans="2:3">
+      <c r="B176" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="177" s="2" customFormat="1" spans="2:3">
+      <c r="B177" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="178" s="2" customFormat="1" spans="2:3">
+      <c r="B178" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C178" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="129" spans="2:3">
-      <c r="B129" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="130" spans="2:3">
-      <c r="B130" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="131" spans="2:3">
-      <c r="B131" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="132" customFormat="1" spans="1:6">
-      <c r="A132" s="2"/>
-      <c r="B132" s="2"/>
-      <c r="C132" s="2"/>
-      <c r="D132" s="2"/>
-      <c r="E132" s="2"/>
-      <c r="F132" s="2"/>
-    </row>
-    <row r="133" s="2" customFormat="1" spans="1:1">
-      <c r="A133" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="134" s="2" customFormat="1" spans="1:5">
-      <c r="A134" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B134" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C134" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D134" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E134" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="135" ht="40.5" spans="1:5">
-      <c r="A135" s="8"/>
-      <c r="B135" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="C135" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="D135" s="8"/>
-      <c r="E135" s="8"/>
-    </row>
-    <row r="136" spans="1:5">
-      <c r="A136" s="8"/>
-      <c r="B136" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="C136" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D136" s="8"/>
-      <c r="E136" s="8"/>
-    </row>
-    <row r="137" spans="1:5">
-      <c r="A137" s="8"/>
-      <c r="B137" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="C137" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D137" s="8"/>
-      <c r="E137" s="8"/>
-    </row>
-    <row r="138" ht="40.5" spans="1:5">
-      <c r="A138" s="8"/>
-      <c r="B138" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="C138" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="D138" s="8"/>
-      <c r="E138" s="8"/>
-    </row>
-    <row r="139" spans="1:5">
-      <c r="A139" s="8"/>
-      <c r="B139" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="C139" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D139" s="8"/>
-      <c r="E139" s="8"/>
-    </row>
-    <row r="140" spans="1:5">
-      <c r="A140" s="8"/>
-      <c r="B140" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="C140" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D140" s="8"/>
-      <c r="E140" s="8"/>
-    </row>
-    <row r="141" ht="27" spans="1:5">
-      <c r="A141" s="8"/>
-      <c r="B141" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="C141" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="D141" s="8"/>
-      <c r="E141" s="8"/>
-    </row>
-    <row r="142" ht="27" spans="1:5">
-      <c r="A142" s="8"/>
-      <c r="B142" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="C142" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D142" s="8"/>
-      <c r="E142" s="8"/>
-    </row>
-    <row r="143" spans="1:5">
-      <c r="A143" s="8"/>
-      <c r="B143" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="C143" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="D143" s="8"/>
-      <c r="E143" s="8"/>
-    </row>
-    <row r="144" spans="1:5">
-      <c r="A144" s="8"/>
-      <c r="B144" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="C144" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="D144" s="8"/>
-      <c r="E144" s="8"/>
-    </row>
-    <row r="145" spans="1:5">
-      <c r="A145" s="8"/>
-      <c r="B145" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="C145" s="8" t="s">
+    <row r="179" s="2" customFormat="1" spans="2:3">
+      <c r="B179" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C179" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D145" s="8"/>
-      <c r="E145" s="8"/>
-    </row>
-    <row r="146" ht="27" spans="1:5">
-      <c r="A146" s="8"/>
-      <c r="B146" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="C146" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="D146" s="8"/>
-      <c r="E146" s="8"/>
-    </row>
-    <row r="147" customFormat="1" spans="1:6">
-      <c r="A147" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F147" s="12"/>
-    </row>
-    <row r="148" customFormat="1" spans="1:6">
-      <c r="A148" t="s">
-        <v>1</v>
-      </c>
-      <c r="B148" t="s">
-        <v>33</v>
-      </c>
-      <c r="C148" t="s">
-        <v>3</v>
-      </c>
-      <c r="D148" t="s">
-        <v>34</v>
-      </c>
-      <c r="E148" t="s">
-        <v>35</v>
-      </c>
-      <c r="F148" s="12"/>
-    </row>
-    <row r="149" customFormat="1" spans="2:6">
-      <c r="B149" t="s">
-        <v>155</v>
-      </c>
-      <c r="F149" s="12"/>
-    </row>
-    <row r="150" customFormat="1" spans="2:6">
-      <c r="B150" t="s">
-        <v>156</v>
-      </c>
-      <c r="C150" t="s">
-        <v>157</v>
-      </c>
-      <c r="F150" s="12"/>
-    </row>
-    <row r="151" s="3" customFormat="1" spans="2:6">
-      <c r="B151" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F151" s="13"/>
-    </row>
-    <row r="152" customFormat="1" spans="2:3">
-      <c r="B152" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="C152" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="153" customFormat="1" spans="2:3">
-      <c r="B153" t="s">
-        <v>161</v>
-      </c>
-      <c r="C153" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="154" customFormat="1" spans="2:3">
-      <c r="B154" t="s">
-        <v>162</v>
-      </c>
-      <c r="C154" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1">
-      <c r="A156" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5">
-      <c r="A157" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="158" ht="40.5" spans="2:5">
-      <c r="B158" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C158" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="E158" s="10"/>
-    </row>
-    <row r="159" spans="2:5">
-      <c r="B159" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C159" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="E159" s="10"/>
-    </row>
-    <row r="160" spans="2:5">
-      <c r="B160" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E160" s="10"/>
-    </row>
-    <row r="161" spans="5:5">
-      <c r="E161" s="10"/>
-    </row>
-    <row r="162" spans="1:1">
-      <c r="A162" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5">
-      <c r="A163" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="164" spans="2:5">
-      <c r="B164" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E164" s="10"/>
-    </row>
-    <row r="166" spans="1:5">
-      <c r="A166" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="B166" s="15"/>
-      <c r="C166" s="15"/>
-      <c r="D166" s="15"/>
-      <c r="E166" s="15"/>
-    </row>
-    <row r="167" spans="1:5">
-      <c r="A167" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B167" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C167" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D167" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5">
-      <c r="A168" s="15"/>
-      <c r="B168" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="C168" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="D168" s="15"/>
-      <c r="E168" s="15"/>
-    </row>
-    <row r="169" spans="1:5">
-      <c r="A169" s="15"/>
-      <c r="B169" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="C169" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="D169" s="15"/>
-      <c r="E169" s="15"/>
-    </row>
-    <row r="170" spans="1:5">
-      <c r="A170" s="15"/>
-      <c r="B170" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="C170" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="D170" s="15"/>
-      <c r="E170" s="15"/>
-    </row>
-    <row r="171" spans="1:5">
-      <c r="A171" s="15"/>
-      <c r="B171" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="C171" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="D171" s="15"/>
-      <c r="E171" s="15"/>
-    </row>
-    <row r="172" ht="27" spans="1:5">
-      <c r="A172" s="15"/>
-      <c r="B172" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="C172" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="D172" s="15"/>
-      <c r="E172" s="15"/>
-    </row>
-    <row r="173" spans="1:5">
-      <c r="A173" s="15"/>
-      <c r="B173" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="C173" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="D173" s="15"/>
-      <c r="E173" s="15"/>
-    </row>
-    <row r="174" spans="1:5">
-      <c r="A174" s="15"/>
-      <c r="B174" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="C174" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="D174" s="15"/>
-      <c r="E174" s="15"/>
-    </row>
-    <row r="176" s="2" customFormat="1" spans="1:1">
-      <c r="A176" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="177" s="2" customFormat="1" spans="1:1">
-      <c r="A177" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="178" s="2" customFormat="1" spans="1:5">
-      <c r="A178" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="179" s="2" customFormat="1" spans="2:5">
-      <c r="B179" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E179" s="2" t="s">
+    </row>
+    <row r="180" s="2" customFormat="1" ht="27" spans="2:3">
+      <c r="B180" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="181" s="2" customFormat="1" spans="2:3">
+      <c r="B181" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C181" s="2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="180" s="1" customFormat="1" ht="27" spans="2:3">
-      <c r="B180" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="C180" s="17" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="181" s="1" customFormat="1" ht="27" spans="2:3">
-      <c r="B181" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="C181" s="17" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="182" s="2" customFormat="1" ht="27" spans="2:3">
+    <row r="182" s="2" customFormat="1" spans="2:3">
       <c r="B182" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C182" s="6" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="183" s="2" customFormat="1" ht="40.5" spans="2:3">
+        <v>201</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="183" s="2" customFormat="1" spans="2:3">
       <c r="B183" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C183" s="6" t="s">
-        <v>193</v>
+        <v>202</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="184" s="2" customFormat="1" spans="2:3">
       <c r="B184" s="2" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="185" s="2" customFormat="1" spans="2:3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="185" s="2" customFormat="1" ht="27" spans="2:3">
       <c r="B185" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="186" s="2" customFormat="1" spans="2:3">
+        <v>204</v>
+      </c>
+      <c r="C185" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="186" s="2" customFormat="1" spans="2:2">
       <c r="B186" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="187" s="2" customFormat="1" ht="27" spans="2:3">
-      <c r="B187" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C187" s="6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="188" s="2" customFormat="1" spans="2:3">
-      <c r="B188" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="189" s="2" customFormat="1" spans="2:3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="B189" s="2" t="s">
-        <v>200</v>
+        <v>36</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="190" s="2" customFormat="1" spans="2:3">
+        <v>3</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="190" spans="2:3">
       <c r="B190" s="2" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="191" s="2" customFormat="1" spans="2:3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="191" spans="2:3">
       <c r="B191" s="2" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="192" s="2" customFormat="1" ht="27" spans="2:3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="192" spans="2:3">
       <c r="B192" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C192" s="6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="193" s="2" customFormat="1" spans="2:2">
+        <v>212</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="193" spans="2:3">
       <c r="B193" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1">
-      <c r="A195" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5">
-      <c r="A196" s="2" t="s">
-        <v>1</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="194" spans="2:3">
+      <c r="B194" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="195" spans="2:3">
+      <c r="B195" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="196" spans="2:3">
       <c r="B196" s="2" t="s">
-        <v>33</v>
+        <v>216</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E196" s="2" t="s">
-        <v>35</v>
+        <v>209</v>
       </c>
     </row>
     <row r="197" spans="2:3">
       <c r="B197" s="2" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="198" spans="2:3">
-      <c r="B198" s="2" t="s">
+      <c r="B198" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="C198" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="199" spans="2:3">
       <c r="B199" s="2" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="200" spans="2:3">
       <c r="B200" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C200" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="201" spans="2:3">
       <c r="B201" s="2" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="202" spans="2:3">
       <c r="B202" s="2" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="203" spans="2:3">
-      <c r="B203" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="204" spans="2:3">
-      <c r="B204" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="205" spans="2:3">
-      <c r="B205" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="206" spans="2:3">
-      <c r="B206" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="207" spans="2:3">
-      <c r="B207" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="208" spans="2:3">
-      <c r="B208" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="209" spans="2:3">
-      <c r="B209" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>208</v>
-      </c>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="204" ht="14.25" spans="1:5">
+      <c r="A204" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="B204" s="18"/>
+      <c r="C204" s="18"/>
+      <c r="D204" s="18"/>
+      <c r="E204" s="18"/>
+    </row>
+    <row r="205" ht="14.25" spans="1:5">
+      <c r="A205" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B205" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C205" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D205" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="E205" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="206" s="2" customFormat="1" ht="27" spans="2:3">
+      <c r="B206" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="C206" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="207" s="2" customFormat="1" ht="27" spans="2:3">
+      <c r="B207" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="C207" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="208" ht="28.5" spans="1:5">
+      <c r="A208" s="18"/>
+      <c r="B208" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="C208" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="D208" s="18"/>
+      <c r="E208" s="18"/>
+    </row>
+    <row r="209" ht="14.25" spans="1:5">
+      <c r="A209" s="18"/>
+      <c r="B209" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="C209" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D209" s="18"/>
+      <c r="E209" s="18"/>
+    </row>
+    <row r="210" ht="14.25" spans="1:5">
+      <c r="A210" s="18"/>
+      <c r="B210" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="C210" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D210" s="18"/>
+      <c r="E210" s="18"/>
     </row>
     <row r="211" ht="14.25" spans="1:5">
-      <c r="A211" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="B211" s="18"/>
-      <c r="C211" s="18"/>
+      <c r="A211" s="18"/>
+      <c r="B211" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="C211" s="18" t="s">
+        <v>41</v>
+      </c>
       <c r="D211" s="18"/>
       <c r="E211" s="18"/>
     </row>
     <row r="212" ht="14.25" spans="1:5">
-      <c r="A212" s="18" t="s">
-        <v>1</v>
-      </c>
+      <c r="A212" s="18"/>
       <c r="B212" s="18" t="s">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C212" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D212" s="18" t="s">
-        <v>222</v>
-      </c>
-      <c r="E212" s="18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="213" ht="28.5" spans="1:5">
+        <v>41</v>
+      </c>
+      <c r="D212" s="18"/>
+      <c r="E212" s="18"/>
+    </row>
+    <row r="213" ht="14.25" spans="1:5">
       <c r="A213" s="18"/>
       <c r="B213" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="C213" s="19" t="s">
-        <v>224</v>
+        <v>234</v>
+      </c>
+      <c r="C213" s="18" t="s">
+        <v>41</v>
       </c>
       <c r="D213" s="18"/>
       <c r="E213" s="18"/>
@@ -3607,94 +3642,79 @@
     <row r="214" ht="14.25" spans="1:5">
       <c r="A214" s="18"/>
       <c r="B214" s="18" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="C214" s="18" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D214" s="18"/>
       <c r="E214" s="18"/>
     </row>
-    <row r="215" ht="14.25" spans="1:5">
-      <c r="A215" s="18"/>
-      <c r="B215" s="18" t="s">
-        <v>226</v>
-      </c>
-      <c r="C215" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D215" s="18"/>
-      <c r="E215" s="18"/>
-    </row>
-    <row r="216" ht="14.25" spans="1:5">
-      <c r="A216" s="18"/>
-      <c r="B216" s="18" t="s">
-        <v>227</v>
-      </c>
-      <c r="C216" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D216" s="18"/>
-      <c r="E216" s="18"/>
-    </row>
-    <row r="217" ht="14.25" spans="1:5">
-      <c r="A217" s="18"/>
-      <c r="B217" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="C217" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D217" s="18"/>
-      <c r="E217" s="18"/>
-    </row>
-    <row r="218" ht="14.25" spans="1:5">
-      <c r="A218" s="18"/>
-      <c r="B218" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="C218" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D218" s="18"/>
-      <c r="E218" s="18"/>
-    </row>
-    <row r="219" ht="14.25" spans="1:5">
-      <c r="A219" s="18"/>
-      <c r="B219" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="C219" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D219" s="18"/>
-      <c r="E219" s="18"/>
-    </row>
-    <row r="221" spans="1:1">
-      <c r="A221" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5">
-      <c r="A222" s="2" t="s">
+    <row r="216" spans="1:1">
+      <c r="A216" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="B217" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="218" spans="2:3">
+      <c r="B218" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219" spans="2:3">
+      <c r="B219" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="220" spans="2:3">
+      <c r="B220" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="221" spans="2:3">
+      <c r="B221" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="222" spans="2:3">
       <c r="B222" s="2" t="s">
-        <v>33</v>
+        <v>241</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D222" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E222" s="2" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
     </row>
     <row r="223" spans="2:3">
       <c r="B223" s="2" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>4</v>
@@ -3702,7 +3722,7 @@
     </row>
     <row r="224" spans="2:3">
       <c r="B224" s="2" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>4</v>
@@ -3710,7 +3730,7 @@
     </row>
     <row r="225" spans="2:3">
       <c r="B225" s="2" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>4</v>
@@ -3718,7 +3738,7 @@
     </row>
     <row r="226" spans="2:3">
       <c r="B226" s="2" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>4</v>
@@ -3726,7 +3746,7 @@
     </row>
     <row r="227" spans="2:3">
       <c r="B227" s="2" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>4</v>
@@ -3734,7 +3754,7 @@
     </row>
     <row r="228" spans="2:3">
       <c r="B228" s="2" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>4</v>
@@ -3742,7 +3762,7 @@
     </row>
     <row r="229" spans="2:3">
       <c r="B229" s="2" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>4</v>
@@ -3750,7 +3770,7 @@
     </row>
     <row r="230" spans="2:3">
       <c r="B230" s="2" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>4</v>
@@ -3758,55 +3778,15 @@
     </row>
     <row r="231" spans="2:3">
       <c r="B231" s="2" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="2:3">
-      <c r="B232" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="233" spans="2:3">
-      <c r="B233" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="234" spans="2:3">
-      <c r="B234" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="235" spans="2:3">
-      <c r="B235" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="C235" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="236" spans="2:3">
-      <c r="B236" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E40 E41 E42 E150 E151 E180 JA180 SW180 ACS180 AMO180 AWK180 BGG180 BQC180 BZY180 CJU180 CTQ180 DDM180 DNI180 DXE180 EHA180 EQW180 FAS180 FKO180 FUK180 GEG180 GOC180 GXY180 HHU180 HRQ180 IBM180 ILI180 IVE180 JFA180 JOW180 JYS180 KIO180 KSK180 LCG180 LMC180 LVY180 MFU180 MPQ180 MZM180 NJI180 NTE180 ODA180 OMW180 OWS180 PGO180 PQK180 QAG180 QKC180 QTY180 RDU180 RNQ180 RXM180 SHI180 SRE180 TBA180 TKW180 TUS180 UEO180 UOK180 UYG180 VIC180 VRY180 WBU180 WLQ180 WVM180 E181 JA181 SW181 ACS181 AMO181 AWK181 BGG181 BQC181 BZY181 CJU181 CTQ181 DDM181 DNI181 DXE181 EHA181 EQW181 FAS181 FKO181 FUK181 GEG181 GOC181 GXY181 HHU181 HRQ181 IBM181 ILI181 IVE181 JFA181 JOW181 JYS181 KIO181 KSK181 LCG181 LMC181 LVY181 MFU181 MPQ181 MZM181 NJI181 NTE181 ODA181 OMW181 OWS181 PGO181 PQK181 QAG181 QKC181 QTY181 RDU181 RNQ181 RXM181 SHI181 SRE181 TBA181 TKW181 TUS181 UEO181 UOK181 UYG181 VIC181 VRY181 WBU181 WLQ181 WVM181 E182 JA182 SW182 ACS182 AMO182 AWK182 BGG182 BQC182 BZY182 CJU182 CTQ182 DDM182 DNI182 DXE182 EHA182 EQW182 FAS182 FKO182 FUK182 GEG182 GOC182 GXY182 HHU182 HRQ182 IBM182 ILI182 IVE182 JFA182 JOW182 JYS182 KIO182 KSK182 LCG182 LMC182 LVY182 MFU182 MPQ182 MZM182 NJI182 NTE182 ODA182 OMW182 OWS182 PGO182 PQK182 QAG182 QKC182 QTY182 RDU182 RNQ182 RXM182 SHI182 SRE182 TBA182 TKW182 TUS182 UEO182 UOK182 UYG182 VIC182 VRY182 WBU182 WLQ182 WVM182 E183 JA183 SW183 ACS183 AMO183 AWK183 BGG183 BQC183 BZY183 CJU183 CTQ183 DDM183 DNI183 DXE183 EHA183 EQW183 FAS183 FKO183 FUK183 GEG183 GOC183 GXY183 HHU183 HRQ183 IBM183 ILI183 IVE183 JFA183 JOW183 JYS183 KIO183 KSK183 LCG183 LMC183 LVY183 MFU183 MPQ183 MZM183 NJI183 NTE183 ODA183 OMW183 OWS183 PGO183 PQK183 QAG183 QKC183 QTY183 RDU183 RNQ183 RXM183 SHI183 SRE183 TBA183 TKW183 TUS183 UEO183 UOK183 UYG183 VIC183 VRY183 WBU183 WLQ183 WVM183 E184 JA184 SW184 ACS184 AMO184 AWK184 BGG184 BQC184 BZY184 CJU184 CTQ184 DDM184 DNI184 DXE184 EHA184 EQW184 FAS184 FKO184 FUK184 GEG184 GOC184 GXY184 HHU184 HRQ184 IBM184 ILI184 IVE184 JFA184 JOW184 JYS184 KIO184 KSK184 LCG184 LMC184 LVY184 MFU184 MPQ184 MZM184 NJI184 NTE184 ODA184 OMW184 OWS184 PGO184 PQK184 QAG184 QKC184 QTY184 RDU184 RNQ184 RXM184 SHI184 SRE184 TBA184 TKW184 TUS184 UEO184 UOK184 UYG184 VIC184 VRY184 WBU184 WLQ184 WVM184 E185 JA185 SW185 ACS185 AMO185 AWK185 BGG185 BQC185 BZY185 CJU185 CTQ185 DDM185 DNI185 DXE185 EHA185 EQW185 FAS185 FKO185 FUK185 GEG185 GOC185 GXY185 HHU185 HRQ185 IBM185 ILI185 IVE185 JFA185 JOW185 JYS185 KIO185 KSK185 LCG185 LMC185 LVY185 MFU185 MPQ185 MZM185 NJI185 NTE185 ODA185 OMW185 OWS185 PGO185 PQK185 QAG185 QKC185 QTY185 RDU185 RNQ185 RXM185 SHI185 SRE185 TBA185 TKW185 TUS185 UEO185 UOK185 UYG185 VIC185 VRY185 WBU185 WLQ185 WVM185 E186 JA186 SW186 ACS186 AMO186 AWK186 BGG186 BQC186 BZY186 CJU186 CTQ186 DDM186 DNI186 DXE186 EHA186 EQW186 FAS186 FKO186 FUK186 GEG186 GOC186 GXY186 HHU186 HRQ186 IBM186 ILI186 IVE186 JFA186 JOW186 JYS186 KIO186 KSK186 LCG186 LMC186 LVY186 MFU186 MPQ186 MZM186 NJI186 NTE186 ODA186 OMW186 OWS186 PGO186 PQK186 QAG186 QKC186 QTY186 RDU186 RNQ186 RXM186 SHI186 SRE186 TBA186 TKW186 TUS186 UEO186 UOK186 UYG186 VIC186 VRY186 WBU186 WLQ186 WVM186 E187 JA187 SW187 ACS187 AMO187 AWK187 BGG187 BQC187 BZY187 CJU187 CTQ187 DDM187 DNI187 DXE187 EHA187 EQW187 FAS187 FKO187 FUK187 GEG187 GOC187 GXY187 HHU187 HRQ187 IBM187 ILI187 IVE187 JFA187 JOW187 JYS187 KIO187 KSK187 LCG187 LMC187 LVY187 MFU187 MPQ187 MZM187 NJI187 NTE187 ODA187 OMW187 OWS187 PGO187 PQK187 QAG187 QKC187 QTY187 RDU187 RNQ187 RXM187 SHI187 SRE187 TBA187 TKW187 TUS187 UEO187 UOK187 UYG187 VIC187 VRY187 WBU187 WLQ187 WVM187 E188 JA188 SW188 ACS188 AMO188 AWK188 BGG188 BQC188 BZY188 CJU188 CTQ188 DDM188 DNI188 DXE188 EHA188 EQW188 FAS188 FKO188 FUK188 GEG188 GOC188 GXY188 HHU188 HRQ188 IBM188 ILI188 IVE188 JFA188 JOW188 JYS188 KIO188 KSK188 LCG188 LMC188 LVY188 MFU188 MPQ188 MZM188 NJI188 NTE188 ODA188 OMW188 OWS188 PGO188 PQK188 QAG188 QKC188 QTY188 RDU188 RNQ188 RXM188 SHI188 SRE188 TBA188 TKW188 TUS188 UEO188 UOK188 UYG188 VIC188 VRY188 WBU188 WLQ188 WVM188 E189 JA189 SW189 ACS189 AMO189 AWK189 BGG189 BQC189 BZY189 CJU189 CTQ189 DDM189 DNI189 DXE189 EHA189 EQW189 FAS189 FKO189 FUK189 GEG189 GOC189 GXY189 HHU189 HRQ189 IBM189 ILI189 IVE189 JFA189 JOW189 JYS189 KIO189 KSK189 LCG189 LMC189 LVY189 MFU189 MPQ189 MZM189 NJI189 NTE189 ODA189 OMW189 OWS189 PGO189 PQK189 QAG189 QKC189 QTY189 RDU189 RNQ189 RXM189 SHI189 SRE189 TBA189 TKW189 TUS189 UEO189 UOK189 UYG189 VIC189 VRY189 WBU189 WLQ189 WVM189 E190 JA190 SW190 ACS190 AMO190 AWK190 BGG190 BQC190 BZY190 CJU190 CTQ190 DDM190 DNI190 DXE190 EHA190 EQW190 FAS190 FKO190 FUK190 GEG190 GOC190 GXY190 HHU190 HRQ190 IBM190 ILI190 IVE190 JFA190 JOW190 JYS190 KIO190 KSK190 LCG190 LMC190 LVY190 MFU190 MPQ190 MZM190 NJI190 NTE190 ODA190 OMW190 OWS190 PGO190 PQK190 QAG190 QKC190 QTY190 RDU190 RNQ190 RXM190 SHI190 SRE190 TBA190 TKW190 TUS190 UEO190 UOK190 UYG190 VIC190 VRY190 WBU190 WLQ190 WVM190 E191 JA191 SW191 ACS191 AMO191 AWK191 BGG191 BQC191 BZY191 CJU191 CTQ191 DDM191 DNI191 DXE191 EHA191 EQW191 FAS191 FKO191 FUK191 GEG191 GOC191 GXY191 HHU191 HRQ191 IBM191 ILI191 IVE191 JFA191 JOW191 JYS191 KIO191 KSK191 LCG191 LMC191 LVY191 MFU191 MPQ191 MZM191 NJI191 NTE191 ODA191 OMW191 OWS191 PGO191 PQK191 QAG191 QKC191 QTY191 RDU191 RNQ191 RXM191 SHI191 SRE191 TBA191 TKW191 TUS191 UEO191 UOK191 UYG191 VIC191 VRY191 WBU191 WLQ191 WVM191 D192 IZ192 SV192 ACR192 AMN192 AWJ192 BGF192 BQB192 BZX192 CJT192 CTP192 DDL192 DNH192 DXD192 EGZ192 EQV192 FAR192 FKN192 FUJ192 GEF192 GOB192 GXX192 HHT192 HRP192 IBL192 ILH192 IVD192 JEZ192 JOV192 JYR192 KIN192 KSJ192 LCF192 LMB192 LVX192 MFT192 MPP192 MZL192 NJH192 NTD192 OCZ192 OMV192 OWR192 PGN192 PQJ192 QAF192 QKB192 QTX192 RDT192 RNP192 RXL192 SHH192 SRD192 TAZ192 TKV192 TUR192 UEN192 UOJ192 UYF192 VIB192 VRX192 WBT192 WLP192 WVL192 E193 JA193 SW193 ACS193 AMO193 AWK193 BGG193 BQC193 BZY193 CJU193 CTQ193 DDM193 DNI193 DXE193 EHA193 EQW193 FAS193 FKO193 FUK193 GEG193 GOC193 GXY193 HHU193 HRQ193 IBM193 ILI193 IVE193 JFA193 JOW193 JYS193 KIO193 KSK193 LCG193 LMC193 LVY193 MFU193 MPQ193 MZM193 NJI193 NTE193 ODA193 OMW193 OWS193 PGO193 PQK193 QAG193 QKC193 QTY193 RDU193 RNQ193 RXM193 SHI193 SRE193 TBA193 TKW193 TUS193 UEO193 UOK193 UYG193 VIC193 VRY193 WBU193 WLQ193 WVM193 E37:E39 E176:E179 JA176:JA179 SW176:SW179 ACS176:ACS179 AMO176:AMO179 AWK176:AWK179 BGG176:BGG179 BQC176:BQC179 BZY176:BZY179 CJU176:CJU179 CTQ176:CTQ179 DDM176:DDM179 DNI176:DNI179 DXE176:DXE179 EHA176:EHA179 EQW176:EQW179 FAS176:FAS179 FKO176:FKO179 FUK176:FUK179 GEG176:GEG179 GOC176:GOC179 GXY176:GXY179 HHU176:HHU179 HRQ176:HRQ179 IBM176:IBM179 ILI176:ILI179 IVE176:IVE179 JFA176:JFA179 JOW176:JOW179 JYS176:JYS179 KIO176:KIO179 KSK176:KSK179 LCG176:LCG179 LMC176:LMC179 LVY176:LVY179 MFU176:MFU179 MPQ176:MPQ179 MZM176:MZM179 NJI176:NJI179 NTE176:NTE179 ODA176:ODA179 OMW176:OMW179 OWS176:OWS179 PGO176:PGO179 PQK176:PQK179 QAG176:QAG179 QKC176:QKC179 QTY176:QTY179 RDU176:RDU179 RNQ176:RNQ179 RXM176:RXM179 SHI176:SHI179 SRE176:SRE179 TBA176:TBA179 TKW176:TKW179 TUS176:TUS179 UEO176:UEO179 UOK176:UOK179 UYG176:UYG179 VIC176:VIC179 VRY176:VRY179 WBU176:WBU179 WLQ176:WLQ179 WVM176:WVM179">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E41 E42 E43 E143 E144 E173 JA173 SW173 ACS173 AMO173 AWK173 BGG173 BQC173 BZY173 CJU173 CTQ173 DDM173 DNI173 DXE173 EHA173 EQW173 FAS173 FKO173 FUK173 GEG173 GOC173 GXY173 HHU173 HRQ173 IBM173 ILI173 IVE173 JFA173 JOW173 JYS173 KIO173 KSK173 LCG173 LMC173 LVY173 MFU173 MPQ173 MZM173 NJI173 NTE173 ODA173 OMW173 OWS173 PGO173 PQK173 QAG173 QKC173 QTY173 RDU173 RNQ173 RXM173 SHI173 SRE173 TBA173 TKW173 TUS173 UEO173 UOK173 UYG173 VIC173 VRY173 WBU173 WLQ173 WVM173 E174 JA174 SW174 ACS174 AMO174 AWK174 BGG174 BQC174 BZY174 CJU174 CTQ174 DDM174 DNI174 DXE174 EHA174 EQW174 FAS174 FKO174 FUK174 GEG174 GOC174 GXY174 HHU174 HRQ174 IBM174 ILI174 IVE174 JFA174 JOW174 JYS174 KIO174 KSK174 LCG174 LMC174 LVY174 MFU174 MPQ174 MZM174 NJI174 NTE174 ODA174 OMW174 OWS174 PGO174 PQK174 QAG174 QKC174 QTY174 RDU174 RNQ174 RXM174 SHI174 SRE174 TBA174 TKW174 TUS174 UEO174 UOK174 UYG174 VIC174 VRY174 WBU174 WLQ174 WVM174 E175 JA175 SW175 ACS175 AMO175 AWK175 BGG175 BQC175 BZY175 CJU175 CTQ175 DDM175 DNI175 DXE175 EHA175 EQW175 FAS175 FKO175 FUK175 GEG175 GOC175 GXY175 HHU175 HRQ175 IBM175 ILI175 IVE175 JFA175 JOW175 JYS175 KIO175 KSK175 LCG175 LMC175 LVY175 MFU175 MPQ175 MZM175 NJI175 NTE175 ODA175 OMW175 OWS175 PGO175 PQK175 QAG175 QKC175 QTY175 RDU175 RNQ175 RXM175 SHI175 SRE175 TBA175 TKW175 TUS175 UEO175 UOK175 UYG175 VIC175 VRY175 WBU175 WLQ175 WVM175 E176 JA176 SW176 ACS176 AMO176 AWK176 BGG176 BQC176 BZY176 CJU176 CTQ176 DDM176 DNI176 DXE176 EHA176 EQW176 FAS176 FKO176 FUK176 GEG176 GOC176 GXY176 HHU176 HRQ176 IBM176 ILI176 IVE176 JFA176 JOW176 JYS176 KIO176 KSK176 LCG176 LMC176 LVY176 MFU176 MPQ176 MZM176 NJI176 NTE176 ODA176 OMW176 OWS176 PGO176 PQK176 QAG176 QKC176 QTY176 RDU176 RNQ176 RXM176 SHI176 SRE176 TBA176 TKW176 TUS176 UEO176 UOK176 UYG176 VIC176 VRY176 WBU176 WLQ176 WVM176 E177 JA177 SW177 ACS177 AMO177 AWK177 BGG177 BQC177 BZY177 CJU177 CTQ177 DDM177 DNI177 DXE177 EHA177 EQW177 FAS177 FKO177 FUK177 GEG177 GOC177 GXY177 HHU177 HRQ177 IBM177 ILI177 IVE177 JFA177 JOW177 JYS177 KIO177 KSK177 LCG177 LMC177 LVY177 MFU177 MPQ177 MZM177 NJI177 NTE177 ODA177 OMW177 OWS177 PGO177 PQK177 QAG177 QKC177 QTY177 RDU177 RNQ177 RXM177 SHI177 SRE177 TBA177 TKW177 TUS177 UEO177 UOK177 UYG177 VIC177 VRY177 WBU177 WLQ177 WVM177 E178 JA178 SW178 ACS178 AMO178 AWK178 BGG178 BQC178 BZY178 CJU178 CTQ178 DDM178 DNI178 DXE178 EHA178 EQW178 FAS178 FKO178 FUK178 GEG178 GOC178 GXY178 HHU178 HRQ178 IBM178 ILI178 IVE178 JFA178 JOW178 JYS178 KIO178 KSK178 LCG178 LMC178 LVY178 MFU178 MPQ178 MZM178 NJI178 NTE178 ODA178 OMW178 OWS178 PGO178 PQK178 QAG178 QKC178 QTY178 RDU178 RNQ178 RXM178 SHI178 SRE178 TBA178 TKW178 TUS178 UEO178 UOK178 UYG178 VIC178 VRY178 WBU178 WLQ178 WVM178 E179 JA179 SW179 ACS179 AMO179 AWK179 BGG179 BQC179 BZY179 CJU179 CTQ179 DDM179 DNI179 DXE179 EHA179 EQW179 FAS179 FKO179 FUK179 GEG179 GOC179 GXY179 HHU179 HRQ179 IBM179 ILI179 IVE179 JFA179 JOW179 JYS179 KIO179 KSK179 LCG179 LMC179 LVY179 MFU179 MPQ179 MZM179 NJI179 NTE179 ODA179 OMW179 OWS179 PGO179 PQK179 QAG179 QKC179 QTY179 RDU179 RNQ179 RXM179 SHI179 SRE179 TBA179 TKW179 TUS179 UEO179 UOK179 UYG179 VIC179 VRY179 WBU179 WLQ179 WVM179 E180 JA180 SW180 ACS180 AMO180 AWK180 BGG180 BQC180 BZY180 CJU180 CTQ180 DDM180 DNI180 DXE180 EHA180 EQW180 FAS180 FKO180 FUK180 GEG180 GOC180 GXY180 HHU180 HRQ180 IBM180 ILI180 IVE180 JFA180 JOW180 JYS180 KIO180 KSK180 LCG180 LMC180 LVY180 MFU180 MPQ180 MZM180 NJI180 NTE180 ODA180 OMW180 OWS180 PGO180 PQK180 QAG180 QKC180 QTY180 RDU180 RNQ180 RXM180 SHI180 SRE180 TBA180 TKW180 TUS180 UEO180 UOK180 UYG180 VIC180 VRY180 WBU180 WLQ180 WVM180 E181 JA181 SW181 ACS181 AMO181 AWK181 BGG181 BQC181 BZY181 CJU181 CTQ181 DDM181 DNI181 DXE181 EHA181 EQW181 FAS181 FKO181 FUK181 GEG181 GOC181 GXY181 HHU181 HRQ181 IBM181 ILI181 IVE181 JFA181 JOW181 JYS181 KIO181 KSK181 LCG181 LMC181 LVY181 MFU181 MPQ181 MZM181 NJI181 NTE181 ODA181 OMW181 OWS181 PGO181 PQK181 QAG181 QKC181 QTY181 RDU181 RNQ181 RXM181 SHI181 SRE181 TBA181 TKW181 TUS181 UEO181 UOK181 UYG181 VIC181 VRY181 WBU181 WLQ181 WVM181 E182 JA182 SW182 ACS182 AMO182 AWK182 BGG182 BQC182 BZY182 CJU182 CTQ182 DDM182 DNI182 DXE182 EHA182 EQW182 FAS182 FKO182 FUK182 GEG182 GOC182 GXY182 HHU182 HRQ182 IBM182 ILI182 IVE182 JFA182 JOW182 JYS182 KIO182 KSK182 LCG182 LMC182 LVY182 MFU182 MPQ182 MZM182 NJI182 NTE182 ODA182 OMW182 OWS182 PGO182 PQK182 QAG182 QKC182 QTY182 RDU182 RNQ182 RXM182 SHI182 SRE182 TBA182 TKW182 TUS182 UEO182 UOK182 UYG182 VIC182 VRY182 WBU182 WLQ182 WVM182 E183 JA183 SW183 ACS183 AMO183 AWK183 BGG183 BQC183 BZY183 CJU183 CTQ183 DDM183 DNI183 DXE183 EHA183 EQW183 FAS183 FKO183 FUK183 GEG183 GOC183 GXY183 HHU183 HRQ183 IBM183 ILI183 IVE183 JFA183 JOW183 JYS183 KIO183 KSK183 LCG183 LMC183 LVY183 MFU183 MPQ183 MZM183 NJI183 NTE183 ODA183 OMW183 OWS183 PGO183 PQK183 QAG183 QKC183 QTY183 RDU183 RNQ183 RXM183 SHI183 SRE183 TBA183 TKW183 TUS183 UEO183 UOK183 UYG183 VIC183 VRY183 WBU183 WLQ183 WVM183 E184 JA184 SW184 ACS184 AMO184 AWK184 BGG184 BQC184 BZY184 CJU184 CTQ184 DDM184 DNI184 DXE184 EHA184 EQW184 FAS184 FKO184 FUK184 GEG184 GOC184 GXY184 HHU184 HRQ184 IBM184 ILI184 IVE184 JFA184 JOW184 JYS184 KIO184 KSK184 LCG184 LMC184 LVY184 MFU184 MPQ184 MZM184 NJI184 NTE184 ODA184 OMW184 OWS184 PGO184 PQK184 QAG184 QKC184 QTY184 RDU184 RNQ184 RXM184 SHI184 SRE184 TBA184 TKW184 TUS184 UEO184 UOK184 UYG184 VIC184 VRY184 WBU184 WLQ184 WVM184 D185 IZ185 SV185 ACR185 AMN185 AWJ185 BGF185 BQB185 BZX185 CJT185 CTP185 DDL185 DNH185 DXD185 EGZ185 EQV185 FAR185 FKN185 FUJ185 GEF185 GOB185 GXX185 HHT185 HRP185 IBL185 ILH185 IVD185 JEZ185 JOV185 JYR185 KIN185 KSJ185 LCF185 LMB185 LVX185 MFT185 MPP185 MZL185 NJH185 NTD185 OCZ185 OMV185 OWR185 PGN185 PQJ185 QAF185 QKB185 QTX185 RDT185 RNP185 RXL185 SHH185 SRD185 TAZ185 TKV185 TUR185 UEN185 UOJ185 UYF185 VIB185 VRX185 WBT185 WLP185 WVL185 E186 JA186 SW186 ACS186 AMO186 AWK186 BGG186 BQC186 BZY186 CJU186 CTQ186 DDM186 DNI186 DXE186 EHA186 EQW186 FAS186 FKO186 FUK186 GEG186 GOC186 GXY186 HHU186 HRQ186 IBM186 ILI186 IVE186 JFA186 JOW186 JYS186 KIO186 KSK186 LCG186 LMC186 LVY186 MFU186 MPQ186 MZM186 NJI186 NTE186 ODA186 OMW186 OWS186 PGO186 PQK186 QAG186 QKC186 QTY186 RDU186 RNQ186 RXM186 SHI186 SRE186 TBA186 TKW186 TUS186 UEO186 UOK186 UYG186 VIC186 VRY186 WBU186 WLQ186 WVM186 E38:E40 E169:E172 JA169:JA172 SW169:SW172 ACS169:ACS172 AMO169:AMO172 AWK169:AWK172 BGG169:BGG172 BQC169:BQC172 BZY169:BZY172 CJU169:CJU172 CTQ169:CTQ172 DDM169:DDM172 DNI169:DNI172 DXE169:DXE172 EHA169:EHA172 EQW169:EQW172 FAS169:FAS172 FKO169:FKO172 FUK169:FUK172 GEG169:GEG172 GOC169:GOC172 GXY169:GXY172 HHU169:HHU172 HRQ169:HRQ172 IBM169:IBM172 ILI169:ILI172 IVE169:IVE172 JFA169:JFA172 JOW169:JOW172 JYS169:JYS172 KIO169:KIO172 KSK169:KSK172 LCG169:LCG172 LMC169:LMC172 LVY169:LVY172 MFU169:MFU172 MPQ169:MPQ172 MZM169:MZM172 NJI169:NJI172 NTE169:NTE172 ODA169:ODA172 OMW169:OMW172 OWS169:OWS172 PGO169:PGO172 PQK169:PQK172 QAG169:QAG172 QKC169:QKC172 QTY169:QTY172 RDU169:RDU172 RNQ169:RNQ172 RXM169:RXM172 SHI169:SHI172 SRE169:SRE172 TBA169:TBA172 TKW169:TKW172 TUS169:TUS172 UEO169:UEO172 UOK169:UOK172 UYG169:UYG172 VIC169:VIC172 VRY169:VRY172 WBU169:WBU172 WLQ169:WLQ172 WVM169:WVM172">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>

--- a/documents/汽车维修保养管理系统功能列表.xlsx
+++ b/documents/汽车维修保养管理系统功能列表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252">
   <si>
     <t>角色分析</t>
   </si>
@@ -499,6 +499,9 @@
   </si>
   <si>
     <t>派工功能</t>
+  </si>
+  <si>
+    <t>汽修公司管理员,汽车公司总技师</t>
   </si>
   <si>
     <t>员工领料确认</t>
@@ -797,10 +800,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -842,14 +845,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -870,11 +874,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -885,11 +896,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -909,9 +942,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -920,43 +959,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -978,8 +980,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -994,25 +997,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1024,13 +1009,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1042,13 +1045,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1066,73 +1075,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1150,31 +1105,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1188,11 +1191,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1208,26 +1235,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1248,21 +1275,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1276,15 +1288,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1293,10 +1296,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1305,19 +1308,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1326,112 +1329,112 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1850,8 +1853,8 @@
   <sheetPr/>
   <dimension ref="A1:F231"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C218" sqref="C218"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="C209" sqref="C209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3044,21 +3047,21 @@
         <v>157</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
       <c r="F144" s="12"/>
     </row>
     <row r="145" customFormat="1" spans="2:3">
       <c r="B145" s="13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C145" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="146" customFormat="1" spans="2:3">
       <c r="B146" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C146" t="s">
         <v>9</v>
@@ -3066,15 +3069,15 @@
     </row>
     <row r="147" customFormat="1" spans="2:3">
       <c r="B147" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C147" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3096,28 +3099,28 @@
     </row>
     <row r="151" ht="40.5" spans="2:5">
       <c r="B151" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E151" s="9"/>
     </row>
     <row r="152" spans="2:5">
       <c r="B152" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E152" s="9"/>
     </row>
     <row r="153" spans="2:5">
       <c r="B153" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E153" s="9"/>
     </row>
@@ -3126,7 +3129,7 @@
     </row>
     <row r="155" spans="1:1">
       <c r="A155" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3148,7 +3151,7 @@
     </row>
     <row r="157" spans="2:5">
       <c r="B157" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>17</v>
@@ -3157,7 +3160,7 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="14" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B159" s="14"/>
       <c r="C159" s="14"/>
@@ -3184,7 +3187,7 @@
     <row r="161" spans="1:5">
       <c r="A161" s="14"/>
       <c r="B161" s="14" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C161" s="14" t="s">
         <v>127</v>
@@ -3195,7 +3198,7 @@
     <row r="162" spans="1:5">
       <c r="A162" s="14"/>
       <c r="B162" s="14" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C162" s="14" t="s">
         <v>124</v>
@@ -3206,10 +3209,10 @@
     <row r="163" spans="1:5">
       <c r="A163" s="14"/>
       <c r="B163" s="14" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C163" s="14" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D163" s="14"/>
       <c r="E163" s="14"/>
@@ -3217,7 +3220,7 @@
     <row r="164" spans="1:5">
       <c r="A164" s="14"/>
       <c r="B164" s="14" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C164" s="14" t="s">
         <v>124</v>
@@ -3228,10 +3231,10 @@
     <row r="165" ht="27" spans="1:5">
       <c r="A165" s="14"/>
       <c r="B165" s="14" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C165" s="15" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D165" s="14"/>
       <c r="E165" s="14"/>
@@ -3239,7 +3242,7 @@
     <row r="166" spans="1:5">
       <c r="A166" s="14"/>
       <c r="B166" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C166" s="14" t="s">
         <v>124</v>
@@ -3250,22 +3253,22 @@
     <row r="167" spans="1:5">
       <c r="A167" s="14"/>
       <c r="B167" s="14" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C167" s="14" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D167" s="14"/>
       <c r="E167" s="14"/>
     </row>
     <row r="169" s="2" customFormat="1" spans="1:1">
       <c r="A169" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="170" s="2" customFormat="1" spans="1:1">
       <c r="A170" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="171" s="2" customFormat="1" spans="1:5">
@@ -3287,50 +3290,50 @@
     </row>
     <row r="172" s="2" customFormat="1" spans="2:5">
       <c r="B172" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="173" s="1" customFormat="1" ht="27" spans="2:3">
       <c r="B173" s="16" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C173" s="17" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="174" s="1" customFormat="1" ht="27" spans="2:3">
       <c r="B174" s="16" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C174" s="17" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="175" s="2" customFormat="1" ht="27" spans="2:3">
       <c r="B175" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="176" s="2" customFormat="1" ht="40.5" spans="2:3">
       <c r="B176" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="177" s="2" customFormat="1" spans="2:3">
       <c r="B177" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>132</v>
@@ -3338,7 +3341,7 @@
     </row>
     <row r="178" s="2" customFormat="1" spans="2:3">
       <c r="B178" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>17</v>
@@ -3346,7 +3349,7 @@
     </row>
     <row r="179" s="2" customFormat="1" spans="2:3">
       <c r="B179" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>17</v>
@@ -3354,23 +3357,23 @@
     </row>
     <row r="180" s="2" customFormat="1" ht="27" spans="2:3">
       <c r="B180" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="181" s="2" customFormat="1" spans="2:3">
       <c r="B181" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="182" s="2" customFormat="1" spans="2:3">
       <c r="B182" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>124</v>
@@ -3378,7 +3381,7 @@
     </row>
     <row r="183" s="2" customFormat="1" spans="2:3">
       <c r="B183" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>124</v>
@@ -3386,7 +3389,7 @@
     </row>
     <row r="184" s="2" customFormat="1" spans="2:3">
       <c r="B184" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>127</v>
@@ -3394,20 +3397,20 @@
     </row>
     <row r="185" s="2" customFormat="1" ht="27" spans="2:3">
       <c r="B185" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="186" s="2" customFormat="1" spans="2:2">
       <c r="B186" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3429,111 +3432,111 @@
     </row>
     <row r="190" spans="2:3">
       <c r="B190" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="191" spans="2:3">
       <c r="B191" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="192" spans="2:3">
       <c r="B192" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="193" spans="2:3">
       <c r="B193" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="194" spans="2:3">
       <c r="B194" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="195" spans="2:3">
       <c r="B195" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="196" spans="2:3">
       <c r="B196" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="197" spans="2:3">
       <c r="B197" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="198" spans="2:3">
       <c r="B198" s="16" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="199" spans="2:3">
       <c r="B199" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="200" spans="2:3">
       <c r="B200" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="201" spans="2:3">
       <c r="B201" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="202" spans="2:3">
       <c r="B202" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="204" ht="14.25" spans="1:5">
       <c r="A204" s="18" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B204" s="18"/>
       <c r="C204" s="18"/>
@@ -3551,7 +3554,7 @@
         <v>3</v>
       </c>
       <c r="D205" s="18" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E205" s="18" t="s">
         <v>38</v>
@@ -3559,27 +3562,27 @@
     </row>
     <row r="206" s="2" customFormat="1" ht="27" spans="2:3">
       <c r="B206" s="16" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="207" s="2" customFormat="1" ht="27" spans="2:3">
       <c r="B207" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="C207" s="6" t="s">
         <v>227</v>
-      </c>
-      <c r="C207" s="6" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="208" ht="28.5" spans="1:5">
       <c r="A208" s="18"/>
       <c r="B208" s="18" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C208" s="19" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D208" s="18"/>
       <c r="E208" s="18"/>
@@ -3587,7 +3590,7 @@
     <row r="209" ht="14.25" spans="1:5">
       <c r="A209" s="18"/>
       <c r="B209" s="18" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C209" s="18" t="s">
         <v>41</v>
@@ -3598,7 +3601,7 @@
     <row r="210" ht="14.25" spans="1:5">
       <c r="A210" s="18"/>
       <c r="B210" s="18" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C210" s="18" t="s">
         <v>41</v>
@@ -3609,7 +3612,7 @@
     <row r="211" ht="14.25" spans="1:5">
       <c r="A211" s="18"/>
       <c r="B211" s="18" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C211" s="18" t="s">
         <v>41</v>
@@ -3620,7 +3623,7 @@
     <row r="212" ht="14.25" spans="1:5">
       <c r="A212" s="18"/>
       <c r="B212" s="18" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C212" s="18" t="s">
         <v>41</v>
@@ -3631,7 +3634,7 @@
     <row r="213" ht="14.25" spans="1:5">
       <c r="A213" s="18"/>
       <c r="B213" s="18" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C213" s="18" t="s">
         <v>41</v>
@@ -3642,7 +3645,7 @@
     <row r="214" ht="14.25" spans="1:5">
       <c r="A214" s="18"/>
       <c r="B214" s="18" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C214" s="18" t="s">
         <v>41</v>
@@ -3652,7 +3655,7 @@
     </row>
     <row r="216" spans="1:1">
       <c r="A216" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -3674,7 +3677,7 @@
     </row>
     <row r="218" spans="2:3">
       <c r="B218" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>4</v>
@@ -3682,7 +3685,7 @@
     </row>
     <row r="219" spans="2:3">
       <c r="B219" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>4</v>
@@ -3690,7 +3693,7 @@
     </row>
     <row r="220" spans="2:3">
       <c r="B220" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>4</v>
@@ -3698,7 +3701,7 @@
     </row>
     <row r="221" spans="2:3">
       <c r="B221" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>4</v>
@@ -3706,7 +3709,7 @@
     </row>
     <row r="222" spans="2:3">
       <c r="B222" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>4</v>
@@ -3714,7 +3717,7 @@
     </row>
     <row r="223" spans="2:3">
       <c r="B223" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>4</v>
@@ -3722,7 +3725,7 @@
     </row>
     <row r="224" spans="2:3">
       <c r="B224" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>4</v>
@@ -3730,7 +3733,7 @@
     </row>
     <row r="225" spans="2:3">
       <c r="B225" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>4</v>
@@ -3738,7 +3741,7 @@
     </row>
     <row r="226" spans="2:3">
       <c r="B226" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>4</v>
@@ -3746,7 +3749,7 @@
     </row>
     <row r="227" spans="2:3">
       <c r="B227" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>4</v>
@@ -3754,7 +3757,7 @@
     </row>
     <row r="228" spans="2:3">
       <c r="B228" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>4</v>
@@ -3762,7 +3765,7 @@
     </row>
     <row r="229" spans="2:3">
       <c r="B229" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>4</v>
@@ -3770,7 +3773,7 @@
     </row>
     <row r="230" spans="2:3">
       <c r="B230" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>4</v>
@@ -3778,7 +3781,7 @@
     </row>
     <row r="231" spans="2:3">
       <c r="B231" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>4</v>
